--- a/dev/ef regionalized/results/ei_ef_geo_mapping.xlsx
+++ b/dev/ef regionalized/results/ei_ef_geo_mapping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="489">
   <si>
     <t>ecoinvent</t>
   </si>
@@ -64,6 +64,9 @@
     <t>APAC</t>
   </si>
   <si>
+    <t>AQ</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>AW</t>
   </si>
   <si>
+    <t>AX</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
@@ -112,6 +118,12 @@
     <t>BJ</t>
   </si>
   <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
     <t>BN</t>
   </si>
   <si>
@@ -220,12 +232,21 @@
     <t>BRA</t>
   </si>
   <si>
+    <t>BRIC</t>
+  </si>
+  <si>
+    <t>BRICS</t>
+  </si>
+  <si>
     <t>BS</t>
   </si>
   <si>
     <t>BT</t>
   </si>
   <si>
+    <t>BV</t>
+  </si>
+  <si>
     <t>BW</t>
   </si>
   <si>
@@ -283,6 +304,9 @@
     <t>CAZ</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
@@ -310,6 +334,9 @@
     <t>CI</t>
   </si>
   <si>
+    <t>CK</t>
+  </si>
+  <si>
     <t>CL</t>
   </si>
   <si>
@@ -439,9 +466,15 @@
     <t>CO</t>
   </si>
   <si>
+    <t>CPA</t>
+  </si>
+  <si>
     <t>CR</t>
   </si>
   <si>
+    <t>CS</t>
+  </si>
+  <si>
     <t>CSA</t>
   </si>
   <si>
@@ -454,6 +487,9 @@
     <t>CW</t>
   </si>
   <si>
+    <t>CX</t>
+  </si>
+  <si>
     <t>CY</t>
   </si>
   <si>
@@ -463,6 +499,12 @@
     <t>Canada without Quebec</t>
   </si>
   <si>
+    <t>Caspian Sea</t>
+  </si>
+  <si>
+    <t>Clipperton Islands</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
@@ -502,6 +544,9 @@
     <t>ENTSO-E</t>
   </si>
   <si>
+    <t>ENTSOE</t>
+  </si>
+  <si>
     <t>ER</t>
   </si>
   <si>
@@ -526,6 +571,9 @@
     <t>Europe, without Russia and Turkey</t>
   </si>
   <si>
+    <t>Europe-CH</t>
+  </si>
+  <si>
     <t>FI</t>
   </si>
   <si>
@@ -535,6 +583,9 @@
     <t>FK</t>
   </si>
   <si>
+    <t>FM</t>
+  </si>
+  <si>
     <t>FO</t>
   </si>
   <si>
@@ -589,18 +640,33 @@
     <t>GR</t>
   </si>
   <si>
+    <t>GS</t>
+  </si>
+  <si>
     <t>GT</t>
   </si>
   <si>
+    <t>GU</t>
+  </si>
+  <si>
     <t>GW</t>
   </si>
   <si>
     <t>GY</t>
   </si>
   <si>
+    <t>GZ</t>
+  </si>
+  <si>
+    <t>Glorioso Island</t>
+  </si>
+  <si>
     <t>HK</t>
   </si>
   <si>
+    <t>HM</t>
+  </si>
+  <si>
     <t>HN</t>
   </si>
   <si>
@@ -772,6 +838,9 @@
     <t>INDO</t>
   </si>
   <si>
+    <t>IO</t>
+  </si>
+  <si>
     <t>IQ</t>
   </si>
   <si>
@@ -802,6 +871,15 @@
     <t>JPN</t>
   </si>
   <si>
+    <t>Jarvis Is</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Juan De Nova Island</t>
+  </si>
+  <si>
     <t>KE</t>
   </si>
   <si>
@@ -811,6 +889,9 @@
     <t>KH</t>
   </si>
   <si>
+    <t>KI</t>
+  </si>
+  <si>
     <t>KM</t>
   </si>
   <si>
@@ -895,6 +976,9 @@
     <t>MG</t>
   </si>
   <si>
+    <t>MH</t>
+  </si>
+  <si>
     <t>MK</t>
   </si>
   <si>
@@ -907,6 +991,12 @@
     <t>MN</t>
   </si>
   <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
     <t>MQ</t>
   </si>
   <si>
@@ -922,6 +1012,9 @@
     <t>MU</t>
   </si>
   <si>
+    <t>MV</t>
+  </si>
+  <si>
     <t>MW</t>
   </si>
   <si>
@@ -934,6 +1027,9 @@
     <t>MZ</t>
   </si>
   <si>
+    <t>Midway Is</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
@@ -949,6 +1045,9 @@
     <t>NEU</t>
   </si>
   <si>
+    <t>NF</t>
+  </si>
+  <si>
     <t>NG</t>
   </si>
   <si>
@@ -967,9 +1066,18 @@
     <t>NP</t>
   </si>
   <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
     <t>NZ</t>
   </si>
   <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
     <t>North America without Quebec</t>
   </si>
   <si>
@@ -982,15 +1090,33 @@
     <t>ODA</t>
   </si>
   <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>OECD+BRIC</t>
+  </si>
+  <si>
+    <t>OECD+BRICS</t>
+  </si>
+  <si>
     <t>OM</t>
   </si>
   <si>
     <t>PA</t>
   </si>
   <si>
+    <t>PAO</t>
+  </si>
+  <si>
+    <t>PAS</t>
+  </si>
+  <si>
     <t>PE</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
@@ -1006,6 +1132,9 @@
     <t>PM</t>
   </si>
   <si>
+    <t>PN</t>
+  </si>
+  <si>
     <t>PR</t>
   </si>
   <si>
@@ -1015,6 +1144,9 @@
     <t>PT</t>
   </si>
   <si>
+    <t>PW</t>
+  </si>
+  <si>
     <t>PY</t>
   </si>
   <si>
@@ -1057,6 +1189,9 @@
     <t>RNA</t>
   </si>
   <si>
+    <t>RNE</t>
+  </si>
+  <si>
     <t>RO</t>
   </si>
   <si>
@@ -1099,6 +1234,9 @@
     <t>SB</t>
   </si>
   <si>
+    <t>SC</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
@@ -1111,9 +1249,15 @@
     <t>SG</t>
   </si>
   <si>
+    <t>SH</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
+    <t>SJ</t>
+  </si>
+  <si>
     <t>SK</t>
   </si>
   <si>
@@ -1159,12 +1303,21 @@
     <t>SZ</t>
   </si>
   <si>
+    <t>Serbia &amp; Montenegro</t>
+  </si>
+  <si>
+    <t>Spartly Islands</t>
+  </si>
+  <si>
     <t>TC</t>
   </si>
   <si>
     <t>TD</t>
   </si>
   <si>
+    <t>TF</t>
+  </si>
+  <si>
     <t>TG</t>
   </si>
   <si>
@@ -1174,6 +1327,9 @@
     <t>TJ</t>
   </si>
   <si>
+    <t>TK</t>
+  </si>
+  <si>
     <t>TL</t>
   </si>
   <si>
@@ -1195,6 +1351,9 @@
     <t>TUR</t>
   </si>
   <si>
+    <t>TV</t>
+  </si>
+  <si>
     <t>TW</t>
   </si>
   <si>
@@ -1219,6 +1378,9 @@
     <t>UKR</t>
   </si>
   <si>
+    <t>UM</t>
+  </si>
+  <si>
     <t>UN-OCEANIA</t>
   </si>
   <si>
@@ -1292,6 +1454,9 @@
   </si>
   <si>
     <t>WEU</t>
+  </si>
+  <si>
+    <t>WF</t>
   </si>
   <si>
     <t>WS</t>
@@ -1673,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E430"/>
+  <dimension ref="A1:E485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1707,10 +1872,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1724,10 +1889,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1741,10 +1906,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1752,16 +1917,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1775,10 +1940,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1792,10 +1957,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1826,10 +1991,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1840,13 +2005,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1860,10 +2025,10 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1871,16 +2036,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1888,16 +2053,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1908,13 +2073,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1925,13 +2090,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1945,10 +2110,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1956,16 +2121,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1973,16 +2138,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1996,10 +2161,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2007,16 +2172,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2030,10 +2195,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2047,10 +2212,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2064,10 +2229,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2081,10 +2246,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2115,10 +2280,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2132,10 +2297,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2149,10 +2314,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2166,10 +2331,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E29" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2183,10 +2348,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2194,16 +2359,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2211,16 +2376,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2228,16 +2393,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2245,16 +2410,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2262,16 +2427,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2279,16 +2444,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2296,16 +2461,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2313,16 +2478,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2330,16 +2495,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2347,16 +2512,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2364,16 +2529,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2381,16 +2546,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2398,16 +2563,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2415,16 +2580,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E44" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2432,16 +2597,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2449,16 +2614,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2466,16 +2631,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E47" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2483,16 +2648,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2500,16 +2665,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2517,16 +2682,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2534,16 +2699,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2551,16 +2716,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2568,16 +2733,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2585,16 +2750,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2602,16 +2767,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2619,16 +2784,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2636,16 +2801,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2653,16 +2818,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E58" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2670,16 +2835,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2687,16 +2852,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E60" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2704,16 +2869,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E61" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2721,16 +2886,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E62" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2738,16 +2903,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E63" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2755,16 +2920,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E64" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2772,16 +2937,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E65" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2789,16 +2954,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2806,16 +2971,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2823,16 +2988,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2840,16 +3005,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E69" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2857,16 +3022,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2874,16 +3039,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E71" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2891,16 +3056,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2908,16 +3073,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2925,16 +3090,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E74" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2942,16 +3107,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2959,16 +3124,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2976,16 +3141,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E77" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2993,16 +3158,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E78" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3010,16 +3175,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E79" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3027,16 +3192,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E80" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3044,16 +3209,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E81" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3061,16 +3226,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E82" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3078,16 +3243,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3095,16 +3260,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3112,16 +3277,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E85" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3129,16 +3294,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D86" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3146,16 +3311,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3163,16 +3328,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E88" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3180,16 +3345,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E89" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3197,16 +3362,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D90" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="E90" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3214,16 +3379,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E91" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3231,16 +3396,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D92" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E92" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3248,16 +3413,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3271,10 +3436,10 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3282,16 +3447,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>384</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>384</v>
       </c>
       <c r="D95" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3305,10 +3470,10 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3322,10 +3487,10 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3333,16 +3498,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3350,16 +3515,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3367,16 +3532,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3384,16 +3549,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D101" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E101" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3401,16 +3566,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D102" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E102" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3418,16 +3583,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3435,16 +3600,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3452,16 +3617,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3469,16 +3634,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E106" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3486,16 +3651,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D107" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E107" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3503,16 +3668,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E108" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3520,16 +3685,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D109" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E109" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3537,16 +3702,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D110" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E110" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3554,16 +3719,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E111" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3571,16 +3736,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D112" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E112" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3588,16 +3753,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D113" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E113" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3605,16 +3770,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D114" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E114" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3622,16 +3787,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C115" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E115" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3639,16 +3804,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C116" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D116" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E116" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3656,16 +3821,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C117" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D117" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E117" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3673,16 +3838,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C118" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E118" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3690,16 +3855,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C119" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D119" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E119" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3707,16 +3872,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D120" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E120" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3724,16 +3889,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C121" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D121" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E121" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3741,16 +3906,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D122" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E122" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3758,16 +3923,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D123" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E123" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3775,16 +3940,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D124" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E124" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3792,16 +3957,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D125" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E125" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3809,16 +3974,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C126" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D126" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E126" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3826,16 +3991,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C127" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D127" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E127" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3843,16 +4008,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C128" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D128" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E128" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3860,16 +4025,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D129" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E129" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3877,16 +4042,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E130" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3894,16 +4059,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C131" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D131" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E131" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3911,16 +4076,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C132" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D132" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E132" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3928,16 +4093,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C133" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D133" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E133" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3945,16 +4110,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C134" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D134" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E134" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3962,16 +4127,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C135" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D135" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E135" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3979,16 +4144,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C136" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D136" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E136" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3996,16 +4161,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C137" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D137" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E137" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4013,16 +4178,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C138" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D138" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E138" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4030,16 +4195,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C139" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="D139" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E139" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4047,16 +4212,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="D140" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E140" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4064,16 +4229,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C141" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="D141" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E141" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4081,16 +4246,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C142" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D142" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E142" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4098,16 +4263,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C143" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="D143" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E143" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4115,16 +4280,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C144" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D144" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="E144" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4132,16 +4297,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C145" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D145" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E145" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4155,10 +4320,10 @@
         <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="E146" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4166,16 +4331,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="D147" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E147" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4189,10 +4354,10 @@
         <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="E148" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4200,16 +4365,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" t="s">
         <v>152</v>
       </c>
-      <c r="C149" t="s">
+      <c r="E149" t="s">
         <v>152</v>
-      </c>
-      <c r="D149" t="s">
-        <v>185</v>
-      </c>
-      <c r="E149" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4217,16 +4382,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E150" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4240,10 +4405,10 @@
         <v>154</v>
       </c>
       <c r="D151" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E151" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4251,16 +4416,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D152" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E152" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4268,16 +4433,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C153" t="s">
         <v>156</v>
       </c>
       <c r="D153" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E153" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4285,16 +4450,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C154" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="D154" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="E154" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4302,16 +4467,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D155" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E155" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4325,10 +4490,10 @@
         <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4336,16 +4501,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C157" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="D157" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E157" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4353,16 +4518,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C158" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D158" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E158" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4370,16 +4535,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="D159" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E159" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4410,10 +4575,10 @@
         <v>164</v>
       </c>
       <c r="D161" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E161" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4421,16 +4586,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D162" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4438,16 +4603,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D163" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E163" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4455,16 +4620,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E164" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4472,16 +4637,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D165" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E165" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4489,16 +4654,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C166" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D166" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E166" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4512,10 +4677,10 @@
         <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="E167" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4529,10 +4694,10 @@
         <v>171</v>
       </c>
       <c r="D168" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4540,16 +4705,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>384</v>
       </c>
       <c r="C169" t="s">
-        <v>172</v>
+        <v>384</v>
       </c>
       <c r="D169" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E169" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4563,10 +4728,10 @@
         <v>173</v>
       </c>
       <c r="D170" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E170" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4577,13 +4742,13 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D171" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="E171" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4591,16 +4756,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D172" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E172" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4608,16 +4773,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C173" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="D173" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E173" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4631,10 +4796,10 @@
         <v>177</v>
       </c>
       <c r="D174" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E174" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4648,10 +4813,10 @@
         <v>178</v>
       </c>
       <c r="D175" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4665,10 +4830,10 @@
         <v>179</v>
       </c>
       <c r="D176" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E176" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4676,16 +4841,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="C177" t="s">
-        <v>180</v>
+        <v>384</v>
       </c>
       <c r="D177" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E177" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4693,16 +4858,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C178" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="D178" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E178" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4710,16 +4875,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C179" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D179" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E179" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4727,16 +4892,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C180" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D180" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E180" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4744,16 +4909,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C181" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D181" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E181" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4761,16 +4926,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C182" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D182" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E182" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4784,10 +4949,10 @@
         <v>186</v>
       </c>
       <c r="D183" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4801,10 +4966,10 @@
         <v>187</v>
       </c>
       <c r="D184" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E184" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4818,10 +4983,10 @@
         <v>188</v>
       </c>
       <c r="D185" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E185" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4829,16 +4994,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C186" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D186" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E186" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4852,10 +5017,10 @@
         <v>190</v>
       </c>
       <c r="D187" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E187" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4869,10 +5034,10 @@
         <v>191</v>
       </c>
       <c r="D188" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4880,16 +5045,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C189" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D189" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E189" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4903,10 +5068,10 @@
         <v>193</v>
       </c>
       <c r="D190" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E190" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4914,16 +5079,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D191" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4937,10 +5102,10 @@
         <v>195</v>
       </c>
       <c r="D192" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E192" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4954,10 +5119,10 @@
         <v>196</v>
       </c>
       <c r="D193" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E193" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4971,10 +5136,10 @@
         <v>197</v>
       </c>
       <c r="D194" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E194" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4982,16 +5147,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C195" t="s">
         <v>198</v>
       </c>
       <c r="D195" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E195" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4999,16 +5164,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D196" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E196" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5016,16 +5181,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D197" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E197" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5033,16 +5198,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D198" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E198" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5050,16 +5215,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D199" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5067,16 +5232,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D200" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E200" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5084,16 +5249,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D201" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5101,16 +5266,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D202" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E202" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5124,10 +5289,10 @@
         <v>206</v>
       </c>
       <c r="D203" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5152,16 +5317,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D205" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E205" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5175,10 +5340,10 @@
         <v>209</v>
       </c>
       <c r="D206" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E206" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5186,16 +5351,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C207" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D207" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E207" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5203,16 +5368,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E208" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5220,16 +5385,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D209" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E209" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5237,16 +5402,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C210" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D210" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E210" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5254,16 +5419,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C211" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D211" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E211" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5271,16 +5436,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C212" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D212" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E212" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5288,16 +5453,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C213" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D213" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E213" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5305,16 +5470,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D214" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E214" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5322,16 +5487,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D215" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5339,16 +5504,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D216" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E216" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5356,16 +5521,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D217" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5373,16 +5538,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C218" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D218" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E218" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5390,16 +5555,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C219" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D219" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E219" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5407,16 +5572,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C220" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D220" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E220" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5424,16 +5589,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C221" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D221" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E221" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5441,16 +5606,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C222" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D222" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E222" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5458,16 +5623,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C223" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D223" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E223" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5475,16 +5640,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C224" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D224" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E224" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5492,16 +5657,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C225" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="D225" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E225" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5509,16 +5674,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C226" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="D226" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5526,16 +5691,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C227" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="D227" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E227" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5543,16 +5708,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="C228" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="D228" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E228" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5560,16 +5725,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C229" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D229" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E229" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5577,16 +5742,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D230" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E230" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5594,16 +5759,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D231" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E231" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5611,16 +5776,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C232" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D232" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E232" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5628,16 +5793,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C233" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D233" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E233" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5645,16 +5810,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D234" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E234" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5662,16 +5827,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C235" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D235" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E235" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5679,16 +5844,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C236" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D236" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E236" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5696,16 +5861,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C237" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D237" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E237" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5713,16 +5878,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C238" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D238" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E238" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5730,16 +5895,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C239" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D239" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E239" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5747,16 +5912,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C240" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D240" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E240" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5764,16 +5929,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C241" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D241" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E241" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5781,16 +5946,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C242" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D242" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E242" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5798,16 +5963,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C243" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D243" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E243" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5815,16 +5980,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C244" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D244" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E244" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5832,16 +5997,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C245" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D245" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E245" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5849,16 +6014,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C246" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D246" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E246" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5866,16 +6031,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C247" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D247" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E247" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5883,16 +6048,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="C248" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D248" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E248" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5900,16 +6065,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C249" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D249" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E249" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5917,16 +6082,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="C250" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D250" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E250" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5934,16 +6099,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C251" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D251" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E251" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5951,16 +6116,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="C252" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D252" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="E252" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5968,16 +6133,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="C253" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="D253" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E253" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5985,16 +6150,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="C254" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D254" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E254" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6002,16 +6167,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="C255" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="D255" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E255" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6019,16 +6184,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="C256" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="D256" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E256" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6036,16 +6201,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="C257" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="D257" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E257" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6053,16 +6218,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="C258" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="D258" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E258" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6070,16 +6235,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C259" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D259" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E259" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6087,16 +6252,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="C260" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="D260" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E260" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6104,16 +6269,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="C261" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="D261" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E261" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6121,16 +6286,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="C262" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="D262" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E262" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6138,16 +6303,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="C263" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="D263" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E263" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6155,16 +6320,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="C264" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="D264" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E264" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6172,16 +6337,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C265" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="D265" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E265" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6189,16 +6354,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="C266" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="D266" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E266" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6206,16 +6371,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="C267" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="D267" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E267" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6223,16 +6388,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="C268" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="D268" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E268" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6240,16 +6405,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C269" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="D269" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E269" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6257,16 +6422,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="C270" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="D270" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E270" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6274,16 +6439,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C271" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D271" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E271" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6297,10 +6462,10 @@
         <v>275</v>
       </c>
       <c r="D272" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E272" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6314,10 +6479,10 @@
         <v>276</v>
       </c>
       <c r="D273" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E273" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6331,10 +6496,10 @@
         <v>277</v>
       </c>
       <c r="D274" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E274" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6348,10 +6513,10 @@
         <v>278</v>
       </c>
       <c r="D275" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6359,16 +6524,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C276" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D276" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E276" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6382,10 +6547,10 @@
         <v>280</v>
       </c>
       <c r="D277" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E277" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6399,10 +6564,10 @@
         <v>281</v>
       </c>
       <c r="D278" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="E278" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6416,10 +6581,10 @@
         <v>282</v>
       </c>
       <c r="D279" t="s">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="E279" t="s">
-        <v>282</v>
+        <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6433,10 +6598,10 @@
         <v>283</v>
       </c>
       <c r="D280" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
       <c r="E280" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6444,16 +6609,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D281" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E281" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6461,16 +6626,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="C282" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="D282" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E282" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6478,16 +6643,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="C283" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D283" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E283" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6495,16 +6660,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="C284" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="D284" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="E284" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6518,10 +6683,10 @@
         <v>288</v>
       </c>
       <c r="D285" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E285" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6529,16 +6694,16 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="C286" t="s">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="D286" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E286" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6546,16 +6711,16 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C287" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D287" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E287" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6563,16 +6728,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C288" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="D288" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E288" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6586,10 +6751,10 @@
         <v>292</v>
       </c>
       <c r="D289" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E289" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6603,10 +6768,10 @@
         <v>293</v>
       </c>
       <c r="D290" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="E290" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6614,16 +6779,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C291" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D291" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E291" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6637,10 +6802,10 @@
         <v>295</v>
       </c>
       <c r="D292" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E292" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6654,10 +6819,10 @@
         <v>296</v>
       </c>
       <c r="D293" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E293" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6671,10 +6836,10 @@
         <v>297</v>
       </c>
       <c r="D294" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E294" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6682,16 +6847,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="C295" t="s">
         <v>298</v>
       </c>
       <c r="D295" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E295" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6705,10 +6870,10 @@
         <v>299</v>
       </c>
       <c r="D296" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E296" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6722,10 +6887,10 @@
         <v>300</v>
       </c>
       <c r="D297" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E297" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6733,16 +6898,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="C298" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D298" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E298" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6756,10 +6921,10 @@
         <v>302</v>
       </c>
       <c r="D299" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E299" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6773,10 +6938,10 @@
         <v>303</v>
       </c>
       <c r="D300" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E300" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6790,10 +6955,10 @@
         <v>304</v>
       </c>
       <c r="D301" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E301" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6807,10 +6972,10 @@
         <v>305</v>
       </c>
       <c r="D302" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E302" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6824,10 +6989,10 @@
         <v>306</v>
       </c>
       <c r="D303" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E303" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6835,16 +7000,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c r="C304" t="s">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c r="D304" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E304" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6858,10 +7023,10 @@
         <v>308</v>
       </c>
       <c r="D305" t="s">
-        <v>185</v>
+        <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>185</v>
+        <v>308</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6875,10 +7040,10 @@
         <v>309</v>
       </c>
       <c r="D306" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6886,16 +7051,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="C307" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="D307" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6909,10 +7074,10 @@
         <v>311</v>
       </c>
       <c r="D308" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E308" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6926,10 +7091,10 @@
         <v>312</v>
       </c>
       <c r="D309" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E309" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6940,13 +7105,13 @@
         <v>313</v>
       </c>
       <c r="C310" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
       <c r="D310" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
       <c r="E310" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6971,16 +7136,16 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="C312" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="D312" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E312" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6988,16 +7153,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>316</v>
+        <v>202</v>
       </c>
       <c r="C313" t="s">
-        <v>316</v>
+        <v>202</v>
       </c>
       <c r="D313" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E313" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7005,16 +7170,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="C314" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D314" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E314" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7022,16 +7187,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C315" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="D315" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E315" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7039,16 +7204,16 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c r="C316" t="s">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c r="D316" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E316" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7056,16 +7221,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C317" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="D317" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E317" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7073,16 +7238,16 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
       <c r="C318" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
       <c r="D318" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7096,10 +7261,10 @@
         <v>322</v>
       </c>
       <c r="D319" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E319" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7113,10 +7278,10 @@
         <v>323</v>
       </c>
       <c r="D320" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E320" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7130,10 +7295,10 @@
         <v>324</v>
       </c>
       <c r="D321" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E321" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7141,16 +7306,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="C322" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="D322" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E322" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7158,16 +7323,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="C323" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="D323" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E323" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7181,10 +7346,10 @@
         <v>327</v>
       </c>
       <c r="D324" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E324" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7198,10 +7363,10 @@
         <v>328</v>
       </c>
       <c r="D325" t="s">
-        <v>328</v>
+        <v>202</v>
       </c>
       <c r="E325" t="s">
-        <v>328</v>
+        <v>202</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7215,10 +7380,10 @@
         <v>329</v>
       </c>
       <c r="D326" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E326" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7232,10 +7397,10 @@
         <v>330</v>
       </c>
       <c r="D327" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E327" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7246,13 +7411,13 @@
         <v>331</v>
       </c>
       <c r="C328" t="s">
-        <v>331</v>
+        <v>202</v>
       </c>
       <c r="D328" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E328" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7260,16 +7425,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>332</v>
+        <v>202</v>
       </c>
       <c r="C329" t="s">
-        <v>332</v>
+        <v>202</v>
       </c>
       <c r="D329" t="s">
-        <v>332</v>
+        <v>202</v>
       </c>
       <c r="E329" t="s">
-        <v>332</v>
+        <v>202</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7283,10 +7448,10 @@
         <v>333</v>
       </c>
       <c r="D330" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E330" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7300,10 +7465,10 @@
         <v>334</v>
       </c>
       <c r="D331" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E331" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7311,16 +7476,16 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="C332" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="D332" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E332" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7328,16 +7493,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="C333" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="D333" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E333" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7345,16 +7510,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C334" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D334" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E334" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7365,13 +7530,13 @@
         <v>338</v>
       </c>
       <c r="C335" t="s">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="D335" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E335" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7379,16 +7544,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="C336" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="D336" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="E336" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7396,16 +7561,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="C337" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="D337" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E337" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7413,16 +7578,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="C338" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="D338" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E338" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7430,16 +7595,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>185</v>
+        <v>384</v>
       </c>
       <c r="C339" t="s">
-        <v>185</v>
+        <v>384</v>
       </c>
       <c r="D339" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E339" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7447,16 +7612,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C340" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D340" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E340" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7464,16 +7629,16 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>185</v>
+        <v>344</v>
       </c>
       <c r="C341" t="s">
-        <v>185</v>
+        <v>344</v>
       </c>
       <c r="D341" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E341" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7481,16 +7646,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="C342" t="s">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="D342" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E342" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7498,16 +7663,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>185</v>
+        <v>346</v>
       </c>
       <c r="C343" t="s">
-        <v>185</v>
+        <v>346</v>
       </c>
       <c r="D343" t="s">
-        <v>185</v>
+        <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>185</v>
+        <v>346</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7532,16 +7697,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>348</v>
+        <v>202</v>
       </c>
       <c r="C345" t="s">
-        <v>348</v>
+        <v>202</v>
       </c>
       <c r="D345" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E345" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7549,16 +7714,16 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>185</v>
+        <v>349</v>
       </c>
       <c r="C346" t="s">
-        <v>185</v>
+        <v>349</v>
       </c>
       <c r="D346" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E346" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7566,16 +7731,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C347" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D347" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E347" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7583,16 +7748,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C348" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D348" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E348" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7606,10 +7771,10 @@
         <v>352</v>
       </c>
       <c r="D349" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="E349" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7617,16 +7782,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="C350" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="D350" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="E350" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7634,16 +7799,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>354</v>
+        <v>202</v>
       </c>
       <c r="C351" t="s">
-        <v>354</v>
+        <v>202</v>
       </c>
       <c r="D351" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E351" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7651,16 +7816,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C352" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D352" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E352" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7668,16 +7833,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="C353" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="D353" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E353" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7685,16 +7850,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>357</v>
+        <v>202</v>
       </c>
       <c r="C354" t="s">
-        <v>357</v>
+        <v>202</v>
       </c>
       <c r="D354" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E354" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7702,16 +7867,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>431</v>
+        <v>202</v>
       </c>
       <c r="C355" t="s">
-        <v>431</v>
+        <v>202</v>
       </c>
       <c r="D355" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E355" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7719,16 +7884,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C356" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D356" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E356" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7736,16 +7901,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>360</v>
+        <v>202</v>
       </c>
       <c r="C357" t="s">
-        <v>360</v>
+        <v>202</v>
       </c>
       <c r="D357" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E357" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7759,10 +7924,10 @@
         <v>361</v>
       </c>
       <c r="D358" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E358" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7776,10 +7941,10 @@
         <v>362</v>
       </c>
       <c r="D359" t="s">
-        <v>362</v>
+        <v>202</v>
       </c>
       <c r="E359" t="s">
-        <v>362</v>
+        <v>202</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7787,16 +7952,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C360" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D360" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E360" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7804,16 +7969,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>364</v>
+        <v>202</v>
       </c>
       <c r="C361" t="s">
-        <v>364</v>
+        <v>202</v>
       </c>
       <c r="D361" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E361" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7827,10 +7992,10 @@
         <v>365</v>
       </c>
       <c r="D362" t="s">
-        <v>365</v>
+        <v>202</v>
       </c>
       <c r="E362" t="s">
-        <v>365</v>
+        <v>202</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7838,16 +8003,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="C363" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="D363" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="E363" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7855,16 +8020,16 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>269</v>
+        <v>367</v>
       </c>
       <c r="C364" t="s">
-        <v>269</v>
+        <v>367</v>
       </c>
       <c r="D364" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E364" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7878,10 +8043,10 @@
         <v>368</v>
       </c>
       <c r="D365" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E365" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7895,10 +8060,10 @@
         <v>369</v>
       </c>
       <c r="D366" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E366" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7912,10 +8077,10 @@
         <v>370</v>
       </c>
       <c r="D367" t="s">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>185</v>
+        <v>370</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7929,10 +8094,10 @@
         <v>371</v>
       </c>
       <c r="D368" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E368" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7940,16 +8105,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="C369" t="s">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="D369" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E369" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7957,16 +8122,16 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>185</v>
+        <v>373</v>
       </c>
       <c r="C370" t="s">
         <v>373</v>
       </c>
       <c r="D370" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E370" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7974,16 +8139,16 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="C371" t="s">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="D371" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E371" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7997,10 +8162,10 @@
         <v>375</v>
       </c>
       <c r="D372" t="s">
-        <v>185</v>
+        <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>185</v>
+        <v>375</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -8008,16 +8173,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C373" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D373" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E373" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -8031,10 +8196,10 @@
         <v>377</v>
       </c>
       <c r="D374" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E374" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -8042,16 +8207,16 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>185</v>
+        <v>378</v>
       </c>
       <c r="C375" t="s">
         <v>378</v>
       </c>
       <c r="D375" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E375" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -8059,16 +8224,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>379</v>
+        <v>202</v>
       </c>
       <c r="C376" t="s">
-        <v>379</v>
+        <v>202</v>
       </c>
       <c r="D376" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E376" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -8076,16 +8241,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>380</v>
+        <v>202</v>
       </c>
       <c r="C377" t="s">
-        <v>380</v>
+        <v>202</v>
       </c>
       <c r="D377" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E377" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -8093,16 +8258,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>381</v>
+        <v>202</v>
       </c>
       <c r="C378" t="s">
-        <v>381</v>
+        <v>202</v>
       </c>
       <c r="D378" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E378" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -8113,13 +8278,13 @@
         <v>382</v>
       </c>
       <c r="C379" t="s">
-        <v>382</v>
+        <v>202</v>
       </c>
       <c r="D379" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E379" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -8127,16 +8292,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C380" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D380" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="E380" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8150,10 +8315,10 @@
         <v>384</v>
       </c>
       <c r="D381" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E381" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8161,16 +8326,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C382" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D382" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E382" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8178,16 +8343,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D383" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E383" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8195,16 +8360,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C384" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D384" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E384" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8212,16 +8377,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>388</v>
+        <v>202</v>
       </c>
       <c r="C385" t="s">
-        <v>388</v>
+        <v>202</v>
       </c>
       <c r="D385" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E385" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8229,16 +8394,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>389</v>
+        <v>202</v>
       </c>
       <c r="C386" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D386" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E386" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8246,16 +8411,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>390</v>
+        <v>202</v>
       </c>
       <c r="C387" t="s">
-        <v>390</v>
+        <v>202</v>
       </c>
       <c r="D387" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E387" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8263,16 +8428,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>391</v>
+        <v>202</v>
       </c>
       <c r="C388" t="s">
-        <v>391</v>
+        <v>202</v>
       </c>
       <c r="D388" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E388" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8280,16 +8445,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C389" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D389" t="s">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>185</v>
+        <v>392</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8300,13 +8465,13 @@
         <v>393</v>
       </c>
       <c r="C390" t="s">
-        <v>185</v>
+        <v>393</v>
       </c>
       <c r="D390" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E390" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8314,16 +8479,16 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>394</v>
+        <v>202</v>
       </c>
       <c r="C391" t="s">
-        <v>394</v>
+        <v>202</v>
       </c>
       <c r="D391" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E391" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8331,16 +8496,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="C392" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="D392" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="E392" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8348,16 +8513,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C393" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D393" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E393" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -8365,16 +8530,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="C394" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="D394" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -8382,16 +8547,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C395" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D395" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="E395" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -8399,16 +8564,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>177</v>
+        <v>399</v>
       </c>
       <c r="C396" t="s">
-        <v>177</v>
+        <v>399</v>
       </c>
       <c r="D396" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E396" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -8416,16 +8581,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="C397" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="D397" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="E397" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -8433,16 +8598,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C398" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D398" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E398" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -8450,16 +8615,16 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>185</v>
+        <v>402</v>
       </c>
       <c r="C399" t="s">
-        <v>185</v>
+        <v>402</v>
       </c>
       <c r="D399" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E399" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -8467,16 +8632,16 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="C400" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="D400" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E400" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -8484,16 +8649,16 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="C401" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="D401" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E401" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -8501,16 +8666,16 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C402" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D402" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E402" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -8518,16 +8683,16 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="C403" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="D403" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E403" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -8535,16 +8700,16 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C404" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D404" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E404" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -8552,16 +8717,16 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C405" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D405" t="s">
-        <v>185</v>
+        <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>185</v>
+        <v>408</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -8569,16 +8734,16 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="C406" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="D406" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E406" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -8586,16 +8751,16 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C407" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D407" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E407" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -8603,16 +8768,16 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="C408" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="D408" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E408" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -8620,16 +8785,16 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C409" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D409" t="s">
-        <v>185</v>
+        <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>185</v>
+        <v>412</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -8637,16 +8802,16 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="C410" t="s">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="D410" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E410" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -8660,10 +8825,10 @@
         <v>414</v>
       </c>
       <c r="D411" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -8671,16 +8836,16 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>415</v>
+        <v>296</v>
       </c>
       <c r="C412" t="s">
-        <v>415</v>
+        <v>296</v>
       </c>
       <c r="D412" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E412" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -8694,10 +8859,10 @@
         <v>416</v>
       </c>
       <c r="D413" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E413" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -8711,10 +8876,10 @@
         <v>417</v>
       </c>
       <c r="D414" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E414" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -8728,10 +8893,10 @@
         <v>418</v>
       </c>
       <c r="D415" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E415" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -8745,10 +8910,10 @@
         <v>419</v>
       </c>
       <c r="D416" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E416" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -8762,10 +8927,10 @@
         <v>420</v>
       </c>
       <c r="D417" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E417" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -8773,16 +8938,16 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>421</v>
+        <v>202</v>
       </c>
       <c r="C418" t="s">
         <v>421</v>
       </c>
       <c r="D418" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E418" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -8790,16 +8955,16 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>422</v>
+        <v>202</v>
       </c>
       <c r="C419" t="s">
-        <v>422</v>
+        <v>202</v>
       </c>
       <c r="D419" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E419" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -8807,16 +8972,16 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>185</v>
+        <v>423</v>
       </c>
       <c r="C420" t="s">
-        <v>185</v>
+        <v>423</v>
       </c>
       <c r="D420" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E420" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -8824,16 +8989,16 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C421" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D421" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E421" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -8841,16 +9006,16 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="C422" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="D422" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E422" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -8858,16 +9023,16 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
+        <v>202</v>
+      </c>
+      <c r="C423" t="s">
         <v>426</v>
       </c>
-      <c r="C423" t="s">
-        <v>185</v>
-      </c>
       <c r="D423" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E423" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -8875,16 +9040,16 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>185</v>
+        <v>427</v>
       </c>
       <c r="C424" t="s">
-        <v>185</v>
+        <v>427</v>
       </c>
       <c r="D424" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E424" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -8892,16 +9057,16 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>185</v>
+        <v>428</v>
       </c>
       <c r="C425" t="s">
-        <v>185</v>
+        <v>428</v>
       </c>
       <c r="D425" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E425" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -8909,16 +9074,16 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>429</v>
+        <v>202</v>
       </c>
       <c r="C426" t="s">
-        <v>429</v>
+        <v>202</v>
       </c>
       <c r="D426" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E426" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -8926,16 +9091,16 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C427" t="s">
-        <v>430</v>
+        <v>202</v>
       </c>
       <c r="D427" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E427" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -8949,10 +9114,10 @@
         <v>431</v>
       </c>
       <c r="D428" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E428" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -8966,10 +9131,10 @@
         <v>432</v>
       </c>
       <c r="D429" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E429" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -8977,16 +9142,951 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>433</v>
+        <v>202</v>
       </c>
       <c r="C430" t="s">
-        <v>433</v>
+        <v>202</v>
       </c>
       <c r="D430" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E430" t="s">
-        <v>185</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>434</v>
+      </c>
+      <c r="B431" t="s">
+        <v>434</v>
+      </c>
+      <c r="C431" t="s">
+        <v>434</v>
+      </c>
+      <c r="D431" t="s">
+        <v>202</v>
+      </c>
+      <c r="E431" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" t="s">
+        <v>435</v>
+      </c>
+      <c r="B432" t="s">
+        <v>435</v>
+      </c>
+      <c r="C432" t="s">
+        <v>435</v>
+      </c>
+      <c r="D432" t="s">
+        <v>202</v>
+      </c>
+      <c r="E432" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>436</v>
+      </c>
+      <c r="B433" t="s">
+        <v>436</v>
+      </c>
+      <c r="C433" t="s">
+        <v>436</v>
+      </c>
+      <c r="D433" t="s">
+        <v>202</v>
+      </c>
+      <c r="E433" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>437</v>
+      </c>
+      <c r="B434" t="s">
+        <v>202</v>
+      </c>
+      <c r="C434" t="s">
+        <v>202</v>
+      </c>
+      <c r="D434" t="s">
+        <v>202</v>
+      </c>
+      <c r="E434" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>438</v>
+      </c>
+      <c r="B435" t="s">
+        <v>438</v>
+      </c>
+      <c r="C435" t="s">
+        <v>438</v>
+      </c>
+      <c r="D435" t="s">
+        <v>202</v>
+      </c>
+      <c r="E435" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" t="s">
+        <v>439</v>
+      </c>
+      <c r="B436" t="s">
+        <v>439</v>
+      </c>
+      <c r="C436" t="s">
+        <v>439</v>
+      </c>
+      <c r="D436" t="s">
+        <v>202</v>
+      </c>
+      <c r="E436" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" t="s">
+        <v>440</v>
+      </c>
+      <c r="B437" t="s">
+        <v>440</v>
+      </c>
+      <c r="C437" t="s">
+        <v>440</v>
+      </c>
+      <c r="D437" t="s">
+        <v>202</v>
+      </c>
+      <c r="E437" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
+        <v>441</v>
+      </c>
+      <c r="B438" t="s">
+        <v>441</v>
+      </c>
+      <c r="C438" t="s">
+        <v>202</v>
+      </c>
+      <c r="D438" t="s">
+        <v>202</v>
+      </c>
+      <c r="E438" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" t="s">
+        <v>442</v>
+      </c>
+      <c r="B439" t="s">
+        <v>442</v>
+      </c>
+      <c r="C439" t="s">
+        <v>442</v>
+      </c>
+      <c r="D439" t="s">
+        <v>202</v>
+      </c>
+      <c r="E439" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" t="s">
+        <v>443</v>
+      </c>
+      <c r="B440" t="s">
+        <v>443</v>
+      </c>
+      <c r="C440" t="s">
+        <v>443</v>
+      </c>
+      <c r="D440" t="s">
+        <v>202</v>
+      </c>
+      <c r="E440" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" t="s">
+        <v>444</v>
+      </c>
+      <c r="B441" t="s">
+        <v>442</v>
+      </c>
+      <c r="C441" t="s">
+        <v>442</v>
+      </c>
+      <c r="D441" t="s">
+        <v>202</v>
+      </c>
+      <c r="E441" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" t="s">
+        <v>445</v>
+      </c>
+      <c r="B442" t="s">
+        <v>202</v>
+      </c>
+      <c r="C442" t="s">
+        <v>202</v>
+      </c>
+      <c r="D442" t="s">
+        <v>202</v>
+      </c>
+      <c r="E442" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" t="s">
+        <v>446</v>
+      </c>
+      <c r="B443" t="s">
+        <v>446</v>
+      </c>
+      <c r="C443" t="s">
+        <v>202</v>
+      </c>
+      <c r="D443" t="s">
+        <v>202</v>
+      </c>
+      <c r="E443" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" t="s">
+        <v>447</v>
+      </c>
+      <c r="B444" t="s">
+        <v>447</v>
+      </c>
+      <c r="C444" t="s">
+        <v>447</v>
+      </c>
+      <c r="D444" t="s">
+        <v>202</v>
+      </c>
+      <c r="E444" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" t="s">
+        <v>448</v>
+      </c>
+      <c r="B445" t="s">
+        <v>448</v>
+      </c>
+      <c r="C445" t="s">
+        <v>448</v>
+      </c>
+      <c r="D445" t="s">
+        <v>448</v>
+      </c>
+      <c r="E445" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" t="s">
+        <v>449</v>
+      </c>
+      <c r="B446" t="s">
+        <v>202</v>
+      </c>
+      <c r="C446" t="s">
+        <v>202</v>
+      </c>
+      <c r="D446" t="s">
+        <v>202</v>
+      </c>
+      <c r="E446" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" t="s">
+        <v>450</v>
+      </c>
+      <c r="B447" t="s">
+        <v>202</v>
+      </c>
+      <c r="C447" t="s">
+        <v>202</v>
+      </c>
+      <c r="D447" t="s">
+        <v>202</v>
+      </c>
+      <c r="E447" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" t="s">
+        <v>451</v>
+      </c>
+      <c r="B448" t="s">
+        <v>451</v>
+      </c>
+      <c r="C448" t="s">
+        <v>451</v>
+      </c>
+      <c r="D448" t="s">
+        <v>202</v>
+      </c>
+      <c r="E448" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" t="s">
+        <v>452</v>
+      </c>
+      <c r="B449" t="s">
+        <v>194</v>
+      </c>
+      <c r="C449" t="s">
+        <v>194</v>
+      </c>
+      <c r="D449" t="s">
+        <v>194</v>
+      </c>
+      <c r="E449" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" t="s">
+        <v>453</v>
+      </c>
+      <c r="B450" t="s">
+        <v>448</v>
+      </c>
+      <c r="C450" t="s">
+        <v>448</v>
+      </c>
+      <c r="D450" t="s">
+        <v>448</v>
+      </c>
+      <c r="E450" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" t="s">
+        <v>454</v>
+      </c>
+      <c r="B451" t="s">
+        <v>202</v>
+      </c>
+      <c r="C451" t="s">
+        <v>202</v>
+      </c>
+      <c r="D451" t="s">
+        <v>202</v>
+      </c>
+      <c r="E451" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" t="s">
+        <v>455</v>
+      </c>
+      <c r="B452" t="s">
+        <v>202</v>
+      </c>
+      <c r="C452" t="s">
+        <v>202</v>
+      </c>
+      <c r="D452" t="s">
+        <v>202</v>
+      </c>
+      <c r="E452" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" t="s">
+        <v>456</v>
+      </c>
+      <c r="B453" t="s">
+        <v>202</v>
+      </c>
+      <c r="C453" t="s">
+        <v>202</v>
+      </c>
+      <c r="D453" t="s">
+        <v>202</v>
+      </c>
+      <c r="E453" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" t="s">
+        <v>457</v>
+      </c>
+      <c r="B454" t="s">
+        <v>457</v>
+      </c>
+      <c r="C454" t="s">
+        <v>457</v>
+      </c>
+      <c r="D454" t="s">
+        <v>202</v>
+      </c>
+      <c r="E454" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" t="s">
+        <v>458</v>
+      </c>
+      <c r="B455" t="s">
+        <v>457</v>
+      </c>
+      <c r="C455" t="s">
+        <v>457</v>
+      </c>
+      <c r="D455" t="s">
+        <v>202</v>
+      </c>
+      <c r="E455" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" t="s">
+        <v>459</v>
+      </c>
+      <c r="B456" t="s">
+        <v>457</v>
+      </c>
+      <c r="C456" t="s">
+        <v>457</v>
+      </c>
+      <c r="D456" t="s">
+        <v>202</v>
+      </c>
+      <c r="E456" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" t="s">
+        <v>460</v>
+      </c>
+      <c r="B457" t="s">
+        <v>457</v>
+      </c>
+      <c r="C457" t="s">
+        <v>457</v>
+      </c>
+      <c r="D457" t="s">
+        <v>202</v>
+      </c>
+      <c r="E457" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" t="s">
+        <v>461</v>
+      </c>
+      <c r="B458" t="s">
+        <v>457</v>
+      </c>
+      <c r="C458" t="s">
+        <v>457</v>
+      </c>
+      <c r="D458" t="s">
+        <v>202</v>
+      </c>
+      <c r="E458" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" t="s">
+        <v>462</v>
+      </c>
+      <c r="B459" t="s">
+        <v>457</v>
+      </c>
+      <c r="C459" t="s">
+        <v>457</v>
+      </c>
+      <c r="D459" t="s">
+        <v>202</v>
+      </c>
+      <c r="E459" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" t="s">
+        <v>463</v>
+      </c>
+      <c r="B460" t="s">
+        <v>457</v>
+      </c>
+      <c r="C460" t="s">
+        <v>457</v>
+      </c>
+      <c r="D460" t="s">
+        <v>202</v>
+      </c>
+      <c r="E460" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" t="s">
+        <v>464</v>
+      </c>
+      <c r="B461" t="s">
+        <v>457</v>
+      </c>
+      <c r="C461" t="s">
+        <v>457</v>
+      </c>
+      <c r="D461" t="s">
+        <v>202</v>
+      </c>
+      <c r="E461" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" t="s">
+        <v>465</v>
+      </c>
+      <c r="B462" t="s">
+        <v>457</v>
+      </c>
+      <c r="C462" t="s">
+        <v>457</v>
+      </c>
+      <c r="D462" t="s">
+        <v>202</v>
+      </c>
+      <c r="E462" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" t="s">
+        <v>466</v>
+      </c>
+      <c r="B463" t="s">
+        <v>457</v>
+      </c>
+      <c r="C463" t="s">
+        <v>457</v>
+      </c>
+      <c r="D463" t="s">
+        <v>202</v>
+      </c>
+      <c r="E463" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" t="s">
+        <v>467</v>
+      </c>
+      <c r="B464" t="s">
+        <v>457</v>
+      </c>
+      <c r="C464" t="s">
+        <v>457</v>
+      </c>
+      <c r="D464" t="s">
+        <v>202</v>
+      </c>
+      <c r="E464" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" t="s">
+        <v>468</v>
+      </c>
+      <c r="B465" t="s">
+        <v>468</v>
+      </c>
+      <c r="C465" t="s">
+        <v>468</v>
+      </c>
+      <c r="D465" t="s">
+        <v>202</v>
+      </c>
+      <c r="E465" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" t="s">
+        <v>469</v>
+      </c>
+      <c r="B466" t="s">
+        <v>469</v>
+      </c>
+      <c r="C466" t="s">
+        <v>469</v>
+      </c>
+      <c r="D466" t="s">
+        <v>202</v>
+      </c>
+      <c r="E466" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" t="s">
+        <v>470</v>
+      </c>
+      <c r="B467" t="s">
+        <v>470</v>
+      </c>
+      <c r="C467" t="s">
+        <v>470</v>
+      </c>
+      <c r="D467" t="s">
+        <v>202</v>
+      </c>
+      <c r="E467" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" t="s">
+        <v>471</v>
+      </c>
+      <c r="B468" t="s">
+        <v>471</v>
+      </c>
+      <c r="C468" t="s">
+        <v>471</v>
+      </c>
+      <c r="D468" t="s">
+        <v>202</v>
+      </c>
+      <c r="E468" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" t="s">
+        <v>472</v>
+      </c>
+      <c r="B469" t="s">
+        <v>472</v>
+      </c>
+      <c r="C469" t="s">
+        <v>472</v>
+      </c>
+      <c r="D469" t="s">
+        <v>202</v>
+      </c>
+      <c r="E469" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" t="s">
+        <v>473</v>
+      </c>
+      <c r="B470" t="s">
+        <v>473</v>
+      </c>
+      <c r="C470" t="s">
+        <v>473</v>
+      </c>
+      <c r="D470" t="s">
+        <v>202</v>
+      </c>
+      <c r="E470" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" t="s">
+        <v>474</v>
+      </c>
+      <c r="B471" t="s">
+        <v>474</v>
+      </c>
+      <c r="C471" t="s">
+        <v>474</v>
+      </c>
+      <c r="D471" t="s">
+        <v>202</v>
+      </c>
+      <c r="E471" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" t="s">
+        <v>475</v>
+      </c>
+      <c r="B472" t="s">
+        <v>475</v>
+      </c>
+      <c r="C472" t="s">
+        <v>475</v>
+      </c>
+      <c r="D472" t="s">
+        <v>202</v>
+      </c>
+      <c r="E472" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" t="s">
+        <v>476</v>
+      </c>
+      <c r="B473" t="s">
+        <v>476</v>
+      </c>
+      <c r="C473" t="s">
+        <v>476</v>
+      </c>
+      <c r="D473" t="s">
+        <v>202</v>
+      </c>
+      <c r="E473" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" t="s">
+        <v>477</v>
+      </c>
+      <c r="B474" t="s">
+        <v>202</v>
+      </c>
+      <c r="C474" t="s">
+        <v>202</v>
+      </c>
+      <c r="D474" t="s">
+        <v>202</v>
+      </c>
+      <c r="E474" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" t="s">
+        <v>478</v>
+      </c>
+      <c r="B475" t="s">
+        <v>202</v>
+      </c>
+      <c r="C475" t="s">
+        <v>202</v>
+      </c>
+      <c r="D475" t="s">
+        <v>202</v>
+      </c>
+      <c r="E475" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" t="s">
+        <v>479</v>
+      </c>
+      <c r="B476" t="s">
+        <v>202</v>
+      </c>
+      <c r="C476" t="s">
+        <v>202</v>
+      </c>
+      <c r="D476" t="s">
+        <v>202</v>
+      </c>
+      <c r="E476" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" t="s">
+        <v>480</v>
+      </c>
+      <c r="B477" t="s">
+        <v>202</v>
+      </c>
+      <c r="C477" t="s">
+        <v>202</v>
+      </c>
+      <c r="D477" t="s">
+        <v>202</v>
+      </c>
+      <c r="E477" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" t="s">
+        <v>481</v>
+      </c>
+      <c r="B478" t="s">
+        <v>481</v>
+      </c>
+      <c r="C478" t="s">
+        <v>202</v>
+      </c>
+      <c r="D478" t="s">
+        <v>202</v>
+      </c>
+      <c r="E478" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" t="s">
+        <v>482</v>
+      </c>
+      <c r="B479" t="s">
+        <v>202</v>
+      </c>
+      <c r="C479" t="s">
+        <v>202</v>
+      </c>
+      <c r="D479" t="s">
+        <v>202</v>
+      </c>
+      <c r="E479" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" t="s">
+        <v>483</v>
+      </c>
+      <c r="B480" t="s">
+        <v>202</v>
+      </c>
+      <c r="C480" t="s">
+        <v>202</v>
+      </c>
+      <c r="D480" t="s">
+        <v>202</v>
+      </c>
+      <c r="E480" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" t="s">
+        <v>484</v>
+      </c>
+      <c r="B481" t="s">
+        <v>484</v>
+      </c>
+      <c r="C481" t="s">
+        <v>484</v>
+      </c>
+      <c r="D481" t="s">
+        <v>202</v>
+      </c>
+      <c r="E481" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" t="s">
+        <v>485</v>
+      </c>
+      <c r="B482" t="s">
+        <v>202</v>
+      </c>
+      <c r="C482" t="s">
+        <v>485</v>
+      </c>
+      <c r="D482" t="s">
+        <v>202</v>
+      </c>
+      <c r="E482" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" t="s">
+        <v>486</v>
+      </c>
+      <c r="B483" t="s">
+        <v>486</v>
+      </c>
+      <c r="C483" t="s">
+        <v>486</v>
+      </c>
+      <c r="D483" t="s">
+        <v>202</v>
+      </c>
+      <c r="E483" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" t="s">
+        <v>487</v>
+      </c>
+      <c r="B484" t="s">
+        <v>487</v>
+      </c>
+      <c r="C484" t="s">
+        <v>487</v>
+      </c>
+      <c r="D484" t="s">
+        <v>202</v>
+      </c>
+      <c r="E484" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" t="s">
+        <v>488</v>
+      </c>
+      <c r="B485" t="s">
+        <v>488</v>
+      </c>
+      <c r="C485" t="s">
+        <v>488</v>
+      </c>
+      <c r="D485" t="s">
+        <v>202</v>
+      </c>
+      <c r="E485" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/dev/ef regionalized/results/ei_ef_geo_mapping.xlsx
+++ b/dev/ef regionalized/results/ei_ef_geo_mapping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="418">
   <si>
     <t>ecoinvent</t>
   </si>
@@ -55,18 +55,12 @@
     <t>AM</t>
   </si>
   <si>
-    <t>AN</t>
-  </si>
-  <si>
     <t>AO</t>
   </si>
   <si>
     <t>APAC</t>
   </si>
   <si>
-    <t>AQ</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>AW</t>
   </si>
   <si>
-    <t>AX</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>BL</t>
   </si>
   <si>
-    <t>BM</t>
-  </si>
-  <si>
     <t>BN</t>
   </si>
   <si>
@@ -232,21 +220,12 @@
     <t>BRA</t>
   </si>
   <si>
-    <t>BRIC</t>
-  </si>
-  <si>
-    <t>BRICS</t>
-  </si>
-  <si>
     <t>BS</t>
   </si>
   <si>
     <t>BT</t>
   </si>
   <si>
-    <t>BV</t>
-  </si>
-  <si>
     <t>BW</t>
   </si>
   <si>
@@ -304,9 +283,6 @@
     <t>CAZ</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
@@ -334,9 +310,6 @@
     <t>CI</t>
   </si>
   <si>
-    <t>CK</t>
-  </si>
-  <si>
     <t>CL</t>
   </si>
   <si>
@@ -466,15 +439,9 @@
     <t>CO</t>
   </si>
   <si>
-    <t>CPA</t>
-  </si>
-  <si>
     <t>CR</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t>CSA</t>
   </si>
   <si>
@@ -487,9 +454,6 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CX</t>
-  </si>
-  <si>
     <t>CY</t>
   </si>
   <si>
@@ -499,12 +463,6 @@
     <t>Canada without Quebec</t>
   </si>
   <si>
-    <t>Caspian Sea</t>
-  </si>
-  <si>
-    <t>Clipperton Islands</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
@@ -538,15 +496,9 @@
     <t>EG</t>
   </si>
   <si>
-    <t>EH</t>
-  </si>
-  <si>
     <t>ENTSO-E</t>
   </si>
   <si>
-    <t>ENTSOE</t>
-  </si>
-  <si>
     <t>ER</t>
   </si>
   <si>
@@ -571,9 +523,6 @@
     <t>Europe, without Russia and Turkey</t>
   </si>
   <si>
-    <t>Europe-CH</t>
-  </si>
-  <si>
     <t>FI</t>
   </si>
   <si>
@@ -583,12 +532,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>FO</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
@@ -607,12 +550,6 @@
     <t>GE</t>
   </si>
   <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
     <t>GH</t>
   </si>
   <si>
@@ -631,42 +568,24 @@
     <t>GN</t>
   </si>
   <si>
-    <t>GP</t>
-  </si>
-  <si>
     <t>GQ</t>
   </si>
   <si>
     <t>GR</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>GT</t>
   </si>
   <si>
-    <t>GU</t>
-  </si>
-  <si>
     <t>GW</t>
   </si>
   <si>
     <t>GY</t>
   </si>
   <si>
-    <t>GZ</t>
-  </si>
-  <si>
-    <t>Glorioso Island</t>
-  </si>
-  <si>
     <t>HK</t>
   </si>
   <si>
-    <t>HM</t>
-  </si>
-  <si>
     <t>HN</t>
   </si>
   <si>
@@ -709,9 +628,6 @@
     <t>IL</t>
   </si>
   <si>
-    <t>IM</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
@@ -838,9 +754,6 @@
     <t>INDO</t>
   </si>
   <si>
-    <t>IO</t>
-  </si>
-  <si>
     <t>IQ</t>
   </si>
   <si>
@@ -856,9 +769,6 @@
     <t>JAP</t>
   </si>
   <si>
-    <t>JE</t>
-  </si>
-  <si>
     <t>JM</t>
   </si>
   <si>
@@ -871,15 +781,6 @@
     <t>JPN</t>
   </si>
   <si>
-    <t>Jarvis Is</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Juan De Nova Island</t>
-  </si>
-  <si>
     <t>KE</t>
   </si>
   <si>
@@ -889,9 +790,6 @@
     <t>KH</t>
   </si>
   <si>
-    <t>KI</t>
-  </si>
-  <si>
     <t>KM</t>
   </si>
   <si>
@@ -928,9 +826,6 @@
     <t>LC</t>
   </si>
   <si>
-    <t>LI</t>
-  </si>
-  <si>
     <t>LK</t>
   </si>
   <si>
@@ -955,9 +850,6 @@
     <t>MA</t>
   </si>
   <si>
-    <t>MC</t>
-  </si>
-  <si>
     <t>MD</t>
   </si>
   <si>
@@ -970,15 +862,9 @@
     <t>MEX</t>
   </si>
   <si>
-    <t>MF</t>
-  </si>
-  <si>
     <t>MG</t>
   </si>
   <si>
-    <t>MH</t>
-  </si>
-  <si>
     <t>MK</t>
   </si>
   <si>
@@ -991,15 +877,6 @@
     <t>MN</t>
   </si>
   <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>MQ</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
@@ -1012,9 +889,6 @@
     <t>MU</t>
   </si>
   <si>
-    <t>MV</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -1027,9 +901,6 @@
     <t>MZ</t>
   </si>
   <si>
-    <t>Midway Is</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -1045,9 +916,6 @@
     <t>NEU</t>
   </si>
   <si>
-    <t>NF</t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
@@ -1066,18 +934,9 @@
     <t>NP</t>
   </si>
   <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
     <t>NZ</t>
   </si>
   <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
     <t>North America without Quebec</t>
   </si>
   <si>
@@ -1090,33 +949,15 @@
     <t>ODA</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>OECD+BRIC</t>
-  </si>
-  <si>
-    <t>OECD+BRICS</t>
-  </si>
-  <si>
     <t>OM</t>
   </si>
   <si>
     <t>PA</t>
   </si>
   <si>
-    <t>PAO</t>
-  </si>
-  <si>
-    <t>PAS</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -1132,21 +973,12 @@
     <t>PM</t>
   </si>
   <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
     <t>PS</t>
   </si>
   <si>
     <t>PT</t>
   </si>
   <si>
-    <t>PW</t>
-  </si>
-  <si>
     <t>PY</t>
   </si>
   <si>
@@ -1162,9 +994,6 @@
     <t>RCAM</t>
   </si>
   <si>
-    <t>RE</t>
-  </si>
-  <si>
     <t>REF</t>
   </si>
   <si>
@@ -1189,9 +1018,6 @@
     <t>RNA</t>
   </si>
   <si>
-    <t>RNE</t>
-  </si>
-  <si>
     <t>RO</t>
   </si>
   <si>
@@ -1234,9 +1060,6 @@
     <t>SB</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
@@ -1249,15 +1072,9 @@
     <t>SG</t>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>SJ</t>
-  </si>
-  <si>
     <t>SK</t>
   </si>
   <si>
@@ -1303,21 +1120,12 @@
     <t>SZ</t>
   </si>
   <si>
-    <t>Serbia &amp; Montenegro</t>
-  </si>
-  <si>
-    <t>Spartly Islands</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
     <t>TD</t>
   </si>
   <si>
-    <t>TF</t>
-  </si>
-  <si>
     <t>TG</t>
   </si>
   <si>
@@ -1327,9 +1135,6 @@
     <t>TJ</t>
   </si>
   <si>
-    <t>TK</t>
-  </si>
-  <si>
     <t>TL</t>
   </si>
   <si>
@@ -1351,9 +1156,6 @@
     <t>TUR</t>
   </si>
   <si>
-    <t>TV</t>
-  </si>
-  <si>
     <t>TW</t>
   </si>
   <si>
@@ -1378,9 +1180,6 @@
     <t>UKR</t>
   </si>
   <si>
-    <t>UM</t>
-  </si>
-  <si>
     <t>UN-OCEANIA</t>
   </si>
   <si>
@@ -1426,9 +1225,6 @@
     <t>UZ</t>
   </si>
   <si>
-    <t>VA</t>
-  </si>
-  <si>
     <t>VC</t>
   </si>
   <si>
@@ -1438,9 +1234,6 @@
     <t>VG</t>
   </si>
   <si>
-    <t>VI</t>
-  </si>
-  <si>
     <t>VN</t>
   </si>
   <si>
@@ -1456,9 +1249,6 @@
     <t>WEU</t>
   </si>
   <si>
-    <t>WF</t>
-  </si>
-  <si>
     <t>WS</t>
   </si>
   <si>
@@ -1469,9 +1259,6 @@
   </si>
   <si>
     <t>YE</t>
-  </si>
-  <si>
-    <t>YT</t>
   </si>
   <si>
     <t>ZA</t>
@@ -1838,7 +1625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E485"/>
+  <dimension ref="A1:E414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1872,10 +1659,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1889,10 +1676,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1906,10 +1693,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1917,16 +1704,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1940,10 +1727,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1957,10 +1744,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1991,10 +1778,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2005,13 +1792,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2019,16 +1806,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2036,16 +1823,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2053,16 +1840,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2076,10 +1863,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2090,13 +1877,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2104,16 +1891,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2127,10 +1914,10 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2138,16 +1925,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2161,10 +1948,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2172,16 +1959,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2195,10 +1982,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2229,10 +2016,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2246,10 +2033,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2263,10 +2050,10 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2280,10 +2067,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2297,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2308,16 +2095,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E28" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2331,10 +2118,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2348,10 +2135,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2359,16 +2146,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2376,16 +2163,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2393,16 +2180,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2410,16 +2197,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2427,16 +2214,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2444,16 +2231,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2461,16 +2248,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2478,16 +2265,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2495,16 +2282,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2512,16 +2299,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2529,16 +2316,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2546,16 +2333,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2563,16 +2350,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2580,16 +2367,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2597,16 +2384,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2614,16 +2401,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2631,16 +2418,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2648,16 +2435,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2665,16 +2452,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2682,16 +2469,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2699,16 +2486,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2716,16 +2503,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2733,16 +2520,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2750,16 +2537,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2767,16 +2554,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2784,16 +2571,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2801,16 +2588,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E57" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2818,16 +2605,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2835,16 +2622,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E59" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2852,16 +2639,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2869,16 +2656,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2886,16 +2673,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E62" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2903,16 +2690,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E63" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2920,16 +2707,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2937,16 +2724,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2954,16 +2741,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2971,16 +2758,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2988,16 +2775,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3005,16 +2792,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3022,16 +2809,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E70" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3039,16 +2826,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E71" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3056,16 +2843,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3073,16 +2860,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="D73" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E73" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3090,16 +2877,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3107,16 +2894,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3124,16 +2911,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3141,16 +2928,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D77" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3158,16 +2945,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D78" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E78" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3175,16 +2962,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3192,16 +2979,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E80" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3209,16 +2996,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D81" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E81" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3226,16 +3013,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E82" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3243,16 +3030,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3260,16 +3047,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3277,16 +3064,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3294,16 +3081,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E86" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3311,16 +3098,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E87" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3328,16 +3115,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3345,16 +3132,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E89" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3362,16 +3149,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3379,16 +3166,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E91" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3396,16 +3183,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E92" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3413,16 +3200,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3436,10 +3223,10 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E94" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3447,16 +3234,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>384</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>384</v>
+        <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3470,10 +3257,10 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E96" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3487,10 +3274,10 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E97" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3498,16 +3285,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3515,16 +3302,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3532,16 +3319,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3549,16 +3336,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E101" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3566,16 +3353,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E102" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3583,16 +3370,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="D103" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E103" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3600,16 +3387,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D104" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E104" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3617,16 +3404,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E105" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3634,16 +3421,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D106" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E106" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3651,16 +3438,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D107" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E107" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3668,16 +3455,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E108" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3685,16 +3472,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E109" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3702,16 +3489,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D110" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E110" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3719,16 +3506,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D111" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E111" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3736,16 +3523,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D112" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E112" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3753,16 +3540,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D113" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E113" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3770,16 +3557,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D114" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E114" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3787,16 +3574,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D115" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E115" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3804,16 +3591,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D116" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E116" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3821,16 +3608,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D117" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E117" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3838,16 +3625,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D118" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E118" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3855,16 +3642,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D119" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E119" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3872,16 +3659,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D120" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E120" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3889,16 +3676,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C121" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E121" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3906,16 +3693,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C122" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D122" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E122" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3923,16 +3710,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C123" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D123" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E123" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3940,16 +3727,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C124" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D124" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E124" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3957,16 +3744,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C125" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D125" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E125" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3974,16 +3761,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C126" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D126" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E126" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3991,16 +3778,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C127" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E127" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4008,16 +3795,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D128" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E128" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4025,16 +3812,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C129" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D129" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E129" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4042,16 +3829,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C130" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D130" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E130" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4059,16 +3846,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C131" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D131" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E131" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4076,16 +3863,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C132" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D132" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E132" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4093,16 +3880,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C133" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D133" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E133" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4110,16 +3897,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C134" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E134" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4127,16 +3914,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C135" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D135" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E135" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4144,16 +3931,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C136" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D136" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E136" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4161,16 +3948,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E137" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4178,16 +3965,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E138" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4195,16 +3982,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="C139" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="D139" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E139" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4212,16 +3999,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E140" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4229,16 +4016,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="D141" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E141" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4246,16 +4033,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="C142" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D142" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E142" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4263,16 +4050,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D143" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E143" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4280,16 +4067,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="D144" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4297,16 +4084,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C145" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D145" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E145" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4320,10 +4107,10 @@
         <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4331,16 +4118,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E147" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4354,10 +4141,10 @@
         <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4365,16 +4152,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="D149" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="E149" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4382,16 +4169,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="D150" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E150" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4405,10 +4192,10 @@
         <v>154</v>
       </c>
       <c r="D151" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E151" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4416,16 +4203,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C152" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D152" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E152" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4433,16 +4220,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
         <v>156</v>
       </c>
       <c r="D153" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E153" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4450,16 +4237,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D154" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4467,16 +4254,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C155" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D155" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E155" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4490,10 +4277,10 @@
         <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E156" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4501,16 +4288,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="C157" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="D157" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E157" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4518,16 +4305,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="D158" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E158" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4535,16 +4322,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4558,10 +4345,10 @@
         <v>163</v>
       </c>
       <c r="D160" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E160" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4569,16 +4356,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C161" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D161" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E161" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4586,16 +4373,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C162" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D162" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E162" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4603,16 +4390,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C163" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D163" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E163" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4620,16 +4407,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C164" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D164" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E164" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4637,16 +4424,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C165" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D165" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E165" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4654,16 +4441,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="D166" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4677,10 +4464,10 @@
         <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E167" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4694,10 +4481,10 @@
         <v>171</v>
       </c>
       <c r="D168" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E168" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4705,16 +4492,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>384</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>384</v>
+        <v>172</v>
       </c>
       <c r="D169" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4722,16 +4509,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C170" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D170" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E170" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4742,13 +4529,13 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D171" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E171" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4756,16 +4543,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="D172" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4773,16 +4560,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D173" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E173" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4796,10 +4583,10 @@
         <v>177</v>
       </c>
       <c r="D174" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E174" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4813,10 +4600,10 @@
         <v>178</v>
       </c>
       <c r="D175" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E175" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4830,10 +4617,10 @@
         <v>179</v>
       </c>
       <c r="D176" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E176" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4841,16 +4628,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>384</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>384</v>
+        <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E177" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4858,16 +4645,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D178" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4875,16 +4662,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D179" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E179" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4892,16 +4679,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D180" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4909,16 +4696,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D181" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E181" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4926,16 +4713,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D182" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4949,10 +4736,10 @@
         <v>186</v>
       </c>
       <c r="D183" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E183" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4966,10 +4753,10 @@
         <v>187</v>
       </c>
       <c r="D184" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E184" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4983,10 +4770,10 @@
         <v>188</v>
       </c>
       <c r="D185" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E185" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4994,16 +4781,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C186" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D186" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E186" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5017,10 +4804,10 @@
         <v>190</v>
       </c>
       <c r="D187" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E187" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5045,16 +4832,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D189" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E189" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5068,10 +4855,10 @@
         <v>193</v>
       </c>
       <c r="D190" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5079,16 +4866,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C191" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D191" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E191" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5096,16 +4883,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C192" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D192" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E192" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5113,16 +4900,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C193" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D193" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E193" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5130,16 +4917,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C194" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D194" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E194" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5147,16 +4934,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C195" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D195" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E195" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5164,16 +4951,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C196" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D196" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E196" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5181,16 +4968,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C197" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D197" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E197" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5204,10 +4991,10 @@
         <v>201</v>
       </c>
       <c r="D198" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E198" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5238,10 +5025,10 @@
         <v>203</v>
       </c>
       <c r="D200" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E200" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5255,10 +5042,10 @@
         <v>204</v>
       </c>
       <c r="D201" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E201" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5266,16 +5053,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D202" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E202" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5283,16 +5070,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D203" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E203" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5300,16 +5087,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C204" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D204" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="E204" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5317,16 +5104,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D205" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E205" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5334,16 +5121,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D206" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E206" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5351,16 +5138,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C207" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D207" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E207" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5368,16 +5155,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C208" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D208" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E208" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5385,16 +5172,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C209" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D209" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E209" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5402,16 +5189,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C210" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D210" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E210" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5419,16 +5206,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C211" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D211" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E211" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5436,16 +5223,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C212" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D212" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E212" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5453,16 +5240,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C213" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D213" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E213" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5470,16 +5257,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C214" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D214" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E214" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5487,16 +5274,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C215" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D215" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="E215" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5504,16 +5291,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C216" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D216" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E216" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5521,16 +5308,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C217" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D217" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="E217" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5538,16 +5325,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C218" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D218" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E218" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5555,16 +5342,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C219" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D219" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E219" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5572,16 +5359,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C220" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D220" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E220" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5589,16 +5376,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C221" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D221" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E221" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5606,16 +5393,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C222" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D222" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E222" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5623,16 +5410,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C223" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D223" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E223" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5640,16 +5427,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C224" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D224" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E224" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5657,16 +5444,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C225" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D225" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E225" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5674,16 +5461,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C226" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="D226" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="E226" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5691,16 +5478,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C227" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="D227" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E227" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5708,16 +5495,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C228" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="D228" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E228" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5725,16 +5512,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C229" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D229" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E229" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5742,16 +5529,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C230" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D230" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E230" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5759,16 +5546,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C231" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D231" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E231" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5776,16 +5563,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C232" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D232" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E232" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5793,16 +5580,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C233" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D233" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E233" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5810,16 +5597,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C234" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D234" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E234" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5827,16 +5614,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C235" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D235" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E235" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5844,16 +5631,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C236" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D236" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E236" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5861,16 +5648,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C237" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D237" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E237" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5878,16 +5665,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C238" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D238" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E238" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5895,16 +5682,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C239" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D239" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E239" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5912,16 +5699,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C240" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D240" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E240" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5929,16 +5716,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C241" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="D241" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E241" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5946,16 +5733,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C242" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="D242" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E242" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5963,16 +5750,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C243" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D243" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E243" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5980,16 +5767,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C244" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="D244" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E244" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5997,16 +5784,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C245" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D245" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E245" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6014,16 +5801,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C246" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="D246" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6031,16 +5818,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C247" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D247" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E247" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6048,16 +5835,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C248" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D248" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E248" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6065,16 +5852,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C249" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="D249" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E249" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6082,16 +5869,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C250" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D250" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E250" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6099,16 +5886,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D251" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E251" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6116,16 +5903,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C252" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="D252" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E252" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6133,16 +5920,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="C253" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D253" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E253" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6150,16 +5937,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C254" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="D254" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E254" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6167,16 +5954,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="C255" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="D255" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E255" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6184,16 +5971,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C256" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="D256" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E256" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6201,16 +5988,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="D257" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E257" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6218,16 +6005,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C258" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="D258" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E258" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6235,16 +6022,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C259" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="D259" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E259" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6252,16 +6039,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C260" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="D260" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E260" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6269,16 +6056,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="C261" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="D261" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E261" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6286,16 +6073,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="C262" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="D262" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E262" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6303,16 +6090,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="C263" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="D263" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E263" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6320,16 +6107,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="C264" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="D264" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E264" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6337,16 +6124,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="C265" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="D265" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E265" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6354,16 +6141,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="C266" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="D266" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E266" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6371,16 +6158,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C267" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="D267" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E267" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6388,16 +6175,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="C268" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="D268" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E268" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6405,16 +6192,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="C269" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="D269" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E269" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6422,16 +6209,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="C270" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="D270" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6439,16 +6226,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="C271" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="D271" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6462,10 +6249,10 @@
         <v>275</v>
       </c>
       <c r="D272" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6479,10 +6266,10 @@
         <v>276</v>
       </c>
       <c r="D273" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E273" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6496,10 +6283,10 @@
         <v>277</v>
       </c>
       <c r="D274" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E274" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6524,16 +6311,16 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C276" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D276" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E276" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6541,16 +6328,16 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="C277" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="D277" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E277" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6558,16 +6345,16 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C278" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D278" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E278" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6581,10 +6368,10 @@
         <v>282</v>
       </c>
       <c r="D279" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E279" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6598,10 +6385,10 @@
         <v>283</v>
       </c>
       <c r="D280" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6609,16 +6396,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C281" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D281" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E281" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6626,16 +6413,16 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="C282" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="D282" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E282" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6643,16 +6430,16 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="C283" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="D283" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E283" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6660,16 +6447,16 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="C284" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="D284" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E284" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6683,10 +6470,10 @@
         <v>288</v>
       </c>
       <c r="D285" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E285" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6700,10 +6487,10 @@
         <v>289</v>
       </c>
       <c r="D286" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E286" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6714,13 +6501,13 @@
         <v>290</v>
       </c>
       <c r="C287" t="s">
-        <v>290</v>
+        <v>181</v>
       </c>
       <c r="D287" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E287" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6728,16 +6515,16 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="C288" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="D288" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E288" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6751,10 +6538,10 @@
         <v>292</v>
       </c>
       <c r="D289" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E289" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6768,10 +6555,10 @@
         <v>293</v>
       </c>
       <c r="D290" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E290" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6779,16 +6566,16 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C291" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D291" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E291" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6802,10 +6589,10 @@
         <v>295</v>
       </c>
       <c r="D292" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E292" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6813,16 +6600,16 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="C293" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="D293" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E293" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6836,10 +6623,10 @@
         <v>297</v>
       </c>
       <c r="D294" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E294" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6847,16 +6634,16 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="C295" t="s">
         <v>298</v>
       </c>
       <c r="D295" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E295" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6864,16 +6651,16 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="C296" t="s">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="D296" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E296" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6887,10 +6674,10 @@
         <v>300</v>
       </c>
       <c r="D297" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E297" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6898,16 +6685,16 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="C298" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="D298" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E298" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6921,10 +6708,10 @@
         <v>302</v>
       </c>
       <c r="D299" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6938,10 +6725,10 @@
         <v>303</v>
       </c>
       <c r="D300" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6949,16 +6736,16 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="C301" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="D301" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E301" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6972,10 +6759,10 @@
         <v>305</v>
       </c>
       <c r="D302" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E302" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6989,10 +6776,10 @@
         <v>306</v>
       </c>
       <c r="D303" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E303" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7000,16 +6787,16 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>307</v>
+        <v>181</v>
       </c>
       <c r="C304" t="s">
-        <v>307</v>
+        <v>181</v>
       </c>
       <c r="D304" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E304" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7017,16 +6804,16 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="C305" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="D305" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="E305" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7034,16 +6821,16 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="C306" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="D306" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="E306" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7051,16 +6838,16 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="C307" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="D307" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="E307" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7074,10 +6861,10 @@
         <v>311</v>
       </c>
       <c r="D308" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E308" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7091,10 +6878,10 @@
         <v>312</v>
       </c>
       <c r="D309" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E309" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7105,13 +6892,13 @@
         <v>313</v>
       </c>
       <c r="C310" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="D310" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E310" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7125,10 +6912,10 @@
         <v>314</v>
       </c>
       <c r="D311" t="s">
-        <v>314</v>
+        <v>181</v>
       </c>
       <c r="E311" t="s">
-        <v>314</v>
+        <v>181</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7142,10 +6929,10 @@
         <v>315</v>
       </c>
       <c r="D312" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E312" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7153,16 +6940,16 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="C313" t="s">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="D313" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E313" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7170,16 +6957,16 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C314" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D314" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7187,16 +6974,16 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="C315" t="s">
         <v>318</v>
       </c>
       <c r="D315" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E315" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7210,10 +6997,10 @@
         <v>319</v>
       </c>
       <c r="D316" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E316" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7221,16 +7008,16 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="C317" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="D317" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7244,10 +7031,10 @@
         <v>321</v>
       </c>
       <c r="D318" t="s">
-        <v>321</v>
+        <v>181</v>
       </c>
       <c r="E318" t="s">
-        <v>321</v>
+        <v>181</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7261,10 +7048,10 @@
         <v>322</v>
       </c>
       <c r="D319" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E319" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7272,16 +7059,16 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>323</v>
+        <v>181</v>
       </c>
       <c r="C320" t="s">
-        <v>323</v>
+        <v>181</v>
       </c>
       <c r="D320" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E320" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7289,16 +7076,16 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="C321" t="s">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="D321" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E321" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7306,16 +7093,16 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C322" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D322" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E322" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7323,16 +7110,16 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="C323" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="D323" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="E323" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7340,16 +7127,16 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
       <c r="C324" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
       <c r="D324" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E324" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7357,16 +7144,16 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>328</v>
+        <v>181</v>
       </c>
       <c r="C325" t="s">
-        <v>328</v>
+        <v>181</v>
       </c>
       <c r="D325" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E325" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7374,16 +7161,16 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="C326" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="D326" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E326" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7391,16 +7178,16 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>330</v>
+        <v>181</v>
       </c>
       <c r="C327" t="s">
-        <v>330</v>
+        <v>181</v>
       </c>
       <c r="D327" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E327" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7408,16 +7195,16 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="C328" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D328" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E328" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7425,16 +7212,16 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C329" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D329" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E329" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7442,16 +7229,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="C330" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="D330" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E330" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7465,10 +7252,10 @@
         <v>334</v>
       </c>
       <c r="D331" t="s">
-        <v>202</v>
+        <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>202</v>
+        <v>334</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7482,10 +7269,10 @@
         <v>335</v>
       </c>
       <c r="D332" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E332" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7493,16 +7280,16 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>336</v>
+        <v>181</v>
       </c>
       <c r="C333" t="s">
-        <v>336</v>
+        <v>181</v>
       </c>
       <c r="D333" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E333" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7510,16 +7297,16 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C334" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D334" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E334" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7527,16 +7314,16 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>338</v>
+        <v>181</v>
       </c>
       <c r="C335" t="s">
-        <v>338</v>
+        <v>181</v>
       </c>
       <c r="D335" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E335" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7544,16 +7331,16 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="C336" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="D336" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7561,16 +7348,16 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D337" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="E337" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7584,10 +7371,10 @@
         <v>341</v>
       </c>
       <c r="D338" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E338" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7595,16 +7382,16 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>384</v>
+        <v>181</v>
       </c>
       <c r="C339" t="s">
-        <v>384</v>
+        <v>181</v>
       </c>
       <c r="D339" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E339" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7612,16 +7399,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C340" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D340" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E340" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7635,10 +7422,10 @@
         <v>344</v>
       </c>
       <c r="D341" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E341" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7646,16 +7433,16 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="C342" t="s">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="D342" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E342" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7663,16 +7450,16 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="C343" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="D343" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="E343" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7686,10 +7473,10 @@
         <v>347</v>
       </c>
       <c r="D344" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="E344" t="s">
-        <v>347</v>
+        <v>181</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7697,16 +7484,16 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="C345" t="s">
-        <v>202</v>
+        <v>348</v>
       </c>
       <c r="D345" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E345" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7720,10 +7507,10 @@
         <v>349</v>
       </c>
       <c r="D346" t="s">
-        <v>202</v>
+        <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>202</v>
+        <v>349</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7731,16 +7518,16 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C347" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D347" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E347" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7748,16 +7535,16 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="C348" t="s">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="D348" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E348" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7771,10 +7558,10 @@
         <v>352</v>
       </c>
       <c r="D349" t="s">
-        <v>202</v>
+        <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>202</v>
+        <v>352</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7782,16 +7569,16 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>202</v>
+        <v>353</v>
       </c>
       <c r="C350" t="s">
-        <v>202</v>
+        <v>353</v>
       </c>
       <c r="D350" t="s">
-        <v>202</v>
+        <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>202</v>
+        <v>353</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7799,16 +7586,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="C351" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="D351" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E351" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7816,16 +7603,16 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>202</v>
+        <v>355</v>
       </c>
       <c r="C352" t="s">
-        <v>202</v>
+        <v>355</v>
       </c>
       <c r="D352" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E352" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7833,16 +7620,16 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="C353" t="s">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="D353" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E353" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7850,16 +7637,16 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>202</v>
+        <v>357</v>
       </c>
       <c r="C354" t="s">
-        <v>202</v>
+        <v>357</v>
       </c>
       <c r="D354" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E354" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7867,16 +7654,16 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="C355" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="D355" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E355" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7884,16 +7671,16 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="C356" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="D356" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E356" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7901,16 +7688,16 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C357" t="s">
-        <v>202</v>
+        <v>360</v>
       </c>
       <c r="D357" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E357" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7918,16 +7705,16 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>361</v>
+        <v>181</v>
       </c>
       <c r="C358" t="s">
-        <v>361</v>
+        <v>181</v>
       </c>
       <c r="D358" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E358" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7941,10 +7728,10 @@
         <v>362</v>
       </c>
       <c r="D359" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E359" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7952,16 +7739,16 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C360" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D360" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E360" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7969,16 +7756,16 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="C361" t="s">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="D361" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E361" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7986,16 +7773,16 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="C362" t="s">
         <v>365</v>
       </c>
       <c r="D362" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E362" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -8003,16 +7790,16 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>202</v>
+        <v>366</v>
       </c>
       <c r="C363" t="s">
-        <v>202</v>
+        <v>366</v>
       </c>
       <c r="D363" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E363" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -8026,10 +7813,10 @@
         <v>367</v>
       </c>
       <c r="D364" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E364" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8043,10 +7830,10 @@
         <v>368</v>
       </c>
       <c r="D365" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E365" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -8060,10 +7847,10 @@
         <v>369</v>
       </c>
       <c r="D366" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E366" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -8077,10 +7864,10 @@
         <v>370</v>
       </c>
       <c r="D367" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
       <c r="E367" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -8094,10 +7881,10 @@
         <v>371</v>
       </c>
       <c r="D368" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E368" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -8105,16 +7892,16 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>202</v>
+        <v>372</v>
       </c>
       <c r="C369" t="s">
-        <v>202</v>
+        <v>372</v>
       </c>
       <c r="D369" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E369" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -8128,10 +7915,10 @@
         <v>373</v>
       </c>
       <c r="D370" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E370" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -8145,10 +7932,10 @@
         <v>374</v>
       </c>
       <c r="D371" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E371" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -8162,10 +7949,10 @@
         <v>375</v>
       </c>
       <c r="D372" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="E372" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -8173,16 +7960,16 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>202</v>
+        <v>376</v>
       </c>
       <c r="C373" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D373" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E373" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -8196,10 +7983,10 @@
         <v>377</v>
       </c>
       <c r="D374" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E374" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -8213,10 +8000,10 @@
         <v>378</v>
       </c>
       <c r="D375" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E375" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -8224,16 +8011,16 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="D376" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E376" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -8241,16 +8028,16 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>202</v>
+        <v>380</v>
       </c>
       <c r="C377" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D377" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E377" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -8258,16 +8045,16 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>202</v>
+        <v>381</v>
       </c>
       <c r="C378" t="s">
-        <v>202</v>
+        <v>381</v>
       </c>
       <c r="D378" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E378" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -8278,13 +8065,13 @@
         <v>382</v>
       </c>
       <c r="C379" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="D379" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -8292,16 +8079,16 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
       <c r="C380" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
       <c r="D380" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
       <c r="E380" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8309,16 +8096,16 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>384</v>
+        <v>181</v>
       </c>
       <c r="C381" t="s">
-        <v>384</v>
+        <v>181</v>
       </c>
       <c r="D381" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E381" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8326,16 +8113,16 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C382" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D382" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E382" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8343,16 +8130,16 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>384</v>
+        <v>175</v>
       </c>
       <c r="C383" t="s">
-        <v>384</v>
+        <v>175</v>
       </c>
       <c r="D383" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E383" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8360,16 +8147,16 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C384" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D384" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
       <c r="E384" t="s">
-        <v>202</v>
+        <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8377,16 +8164,16 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C385" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D385" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E385" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8394,16 +8181,16 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C386" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D386" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E386" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8411,16 +8198,16 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="C387" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="D387" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E387" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8428,16 +8215,16 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="C388" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="D388" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E388" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8445,16 +8232,16 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D389" t="s">
-        <v>392</v>
+        <v>181</v>
       </c>
       <c r="E389" t="s">
-        <v>392</v>
+        <v>181</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8462,16 +8249,16 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C390" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D390" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E390" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8479,16 +8266,16 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="C391" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="D391" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E391" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8496,16 +8283,16 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="C392" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="D392" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E392" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8513,16 +8300,16 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="C393" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="D393" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E393" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -8530,16 +8317,16 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C394" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D394" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
       <c r="E394" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -8547,16 +8334,16 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C395" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D395" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
       <c r="E395" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -8564,16 +8351,16 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C396" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D396" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E396" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -8581,16 +8368,16 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="C397" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="D397" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E397" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -8598,16 +8385,16 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="C398" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="D398" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E398" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -8621,10 +8408,10 @@
         <v>402</v>
       </c>
       <c r="D399" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E399" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -8632,16 +8419,16 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>486</v>
+        <v>403</v>
       </c>
       <c r="C400" t="s">
-        <v>486</v>
+        <v>403</v>
       </c>
       <c r="D400" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E400" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -8649,16 +8436,16 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>202</v>
+        <v>404</v>
       </c>
       <c r="C401" t="s">
-        <v>202</v>
+        <v>404</v>
       </c>
       <c r="D401" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E401" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -8672,10 +8459,10 @@
         <v>405</v>
       </c>
       <c r="D402" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E402" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -8683,16 +8470,16 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>202</v>
+        <v>406</v>
       </c>
       <c r="C403" t="s">
-        <v>202</v>
+        <v>406</v>
       </c>
       <c r="D403" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E403" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -8706,10 +8493,10 @@
         <v>407</v>
       </c>
       <c r="D404" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E404" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -8717,16 +8504,16 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>408</v>
+        <v>181</v>
       </c>
       <c r="C405" t="s">
-        <v>408</v>
+        <v>181</v>
       </c>
       <c r="D405" t="s">
-        <v>408</v>
+        <v>181</v>
       </c>
       <c r="E405" t="s">
-        <v>408</v>
+        <v>181</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -8734,16 +8521,16 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C406" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D406" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E406" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -8751,16 +8538,16 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>410</v>
+        <v>181</v>
       </c>
       <c r="C407" t="s">
-        <v>410</v>
+        <v>181</v>
       </c>
       <c r="D407" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E407" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -8768,16 +8555,16 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>202</v>
+        <v>411</v>
       </c>
       <c r="C408" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D408" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E408" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -8785,16 +8572,16 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>412</v>
+        <v>181</v>
       </c>
       <c r="C409" t="s">
-        <v>412</v>
+        <v>181</v>
       </c>
       <c r="D409" t="s">
-        <v>412</v>
+        <v>181</v>
       </c>
       <c r="E409" t="s">
-        <v>412</v>
+        <v>181</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -8802,16 +8589,16 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C410" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D410" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E410" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -8825,10 +8612,10 @@
         <v>414</v>
       </c>
       <c r="D411" t="s">
-        <v>414</v>
+        <v>181</v>
       </c>
       <c r="E411" t="s">
-        <v>414</v>
+        <v>181</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -8836,16 +8623,16 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="C412" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="D412" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E412" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -8859,10 +8646,10 @@
         <v>416</v>
       </c>
       <c r="D413" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E413" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -8876,1217 +8663,10 @@
         <v>417</v>
       </c>
       <c r="D414" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E414" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415" t="s">
-        <v>418</v>
-      </c>
-      <c r="B415" t="s">
-        <v>418</v>
-      </c>
-      <c r="C415" t="s">
-        <v>418</v>
-      </c>
-      <c r="D415" t="s">
-        <v>202</v>
-      </c>
-      <c r="E415" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="A416" t="s">
-        <v>419</v>
-      </c>
-      <c r="B416" t="s">
-        <v>419</v>
-      </c>
-      <c r="C416" t="s">
-        <v>419</v>
-      </c>
-      <c r="D416" t="s">
-        <v>202</v>
-      </c>
-      <c r="E416" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="A417" t="s">
-        <v>420</v>
-      </c>
-      <c r="B417" t="s">
-        <v>420</v>
-      </c>
-      <c r="C417" t="s">
-        <v>420</v>
-      </c>
-      <c r="D417" t="s">
-        <v>202</v>
-      </c>
-      <c r="E417" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="A418" t="s">
-        <v>421</v>
-      </c>
-      <c r="B418" t="s">
-        <v>202</v>
-      </c>
-      <c r="C418" t="s">
-        <v>421</v>
-      </c>
-      <c r="D418" t="s">
-        <v>202</v>
-      </c>
-      <c r="E418" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="A419" t="s">
-        <v>422</v>
-      </c>
-      <c r="B419" t="s">
-        <v>202</v>
-      </c>
-      <c r="C419" t="s">
-        <v>202</v>
-      </c>
-      <c r="D419" t="s">
-        <v>202</v>
-      </c>
-      <c r="E419" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="A420" t="s">
-        <v>423</v>
-      </c>
-      <c r="B420" t="s">
-        <v>423</v>
-      </c>
-      <c r="C420" t="s">
-        <v>423</v>
-      </c>
-      <c r="D420" t="s">
-        <v>202</v>
-      </c>
-      <c r="E420" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="A421" t="s">
-        <v>424</v>
-      </c>
-      <c r="B421" t="s">
-        <v>202</v>
-      </c>
-      <c r="C421" t="s">
-        <v>202</v>
-      </c>
-      <c r="D421" t="s">
-        <v>202</v>
-      </c>
-      <c r="E421" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" t="s">
-        <v>425</v>
-      </c>
-      <c r="B422" t="s">
-        <v>425</v>
-      </c>
-      <c r="C422" t="s">
-        <v>425</v>
-      </c>
-      <c r="D422" t="s">
-        <v>202</v>
-      </c>
-      <c r="E422" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="A423" t="s">
-        <v>426</v>
-      </c>
-      <c r="B423" t="s">
-        <v>202</v>
-      </c>
-      <c r="C423" t="s">
-        <v>426</v>
-      </c>
-      <c r="D423" t="s">
-        <v>202</v>
-      </c>
-      <c r="E423" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
-      <c r="A424" t="s">
-        <v>427</v>
-      </c>
-      <c r="B424" t="s">
-        <v>427</v>
-      </c>
-      <c r="C424" t="s">
-        <v>427</v>
-      </c>
-      <c r="D424" t="s">
-        <v>202</v>
-      </c>
-      <c r="E424" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425" t="s">
-        <v>428</v>
-      </c>
-      <c r="B425" t="s">
-        <v>428</v>
-      </c>
-      <c r="C425" t="s">
-        <v>428</v>
-      </c>
-      <c r="D425" t="s">
-        <v>202</v>
-      </c>
-      <c r="E425" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="A426" t="s">
-        <v>429</v>
-      </c>
-      <c r="B426" t="s">
-        <v>202</v>
-      </c>
-      <c r="C426" t="s">
-        <v>202</v>
-      </c>
-      <c r="D426" t="s">
-        <v>202</v>
-      </c>
-      <c r="E426" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="A427" t="s">
-        <v>430</v>
-      </c>
-      <c r="B427" t="s">
-        <v>202</v>
-      </c>
-      <c r="C427" t="s">
-        <v>202</v>
-      </c>
-      <c r="D427" t="s">
-        <v>202</v>
-      </c>
-      <c r="E427" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="A428" t="s">
-        <v>431</v>
-      </c>
-      <c r="B428" t="s">
-        <v>431</v>
-      </c>
-      <c r="C428" t="s">
-        <v>431</v>
-      </c>
-      <c r="D428" t="s">
-        <v>202</v>
-      </c>
-      <c r="E428" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
-      <c r="A429" t="s">
-        <v>432</v>
-      </c>
-      <c r="B429" t="s">
-        <v>432</v>
-      </c>
-      <c r="C429" t="s">
-        <v>432</v>
-      </c>
-      <c r="D429" t="s">
-        <v>202</v>
-      </c>
-      <c r="E429" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="A430" t="s">
-        <v>433</v>
-      </c>
-      <c r="B430" t="s">
-        <v>202</v>
-      </c>
-      <c r="C430" t="s">
-        <v>202</v>
-      </c>
-      <c r="D430" t="s">
-        <v>202</v>
-      </c>
-      <c r="E430" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
-      <c r="A431" t="s">
-        <v>434</v>
-      </c>
-      <c r="B431" t="s">
-        <v>434</v>
-      </c>
-      <c r="C431" t="s">
-        <v>434</v>
-      </c>
-      <c r="D431" t="s">
-        <v>202</v>
-      </c>
-      <c r="E431" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="A432" t="s">
-        <v>435</v>
-      </c>
-      <c r="B432" t="s">
-        <v>435</v>
-      </c>
-      <c r="C432" t="s">
-        <v>435</v>
-      </c>
-      <c r="D432" t="s">
-        <v>202</v>
-      </c>
-      <c r="E432" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
-      <c r="A433" t="s">
-        <v>436</v>
-      </c>
-      <c r="B433" t="s">
-        <v>436</v>
-      </c>
-      <c r="C433" t="s">
-        <v>436</v>
-      </c>
-      <c r="D433" t="s">
-        <v>202</v>
-      </c>
-      <c r="E433" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
-      <c r="A434" t="s">
-        <v>437</v>
-      </c>
-      <c r="B434" t="s">
-        <v>202</v>
-      </c>
-      <c r="C434" t="s">
-        <v>202</v>
-      </c>
-      <c r="D434" t="s">
-        <v>202</v>
-      </c>
-      <c r="E434" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
-      <c r="A435" t="s">
-        <v>438</v>
-      </c>
-      <c r="B435" t="s">
-        <v>438</v>
-      </c>
-      <c r="C435" t="s">
-        <v>438</v>
-      </c>
-      <c r="D435" t="s">
-        <v>202</v>
-      </c>
-      <c r="E435" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
-      <c r="A436" t="s">
-        <v>439</v>
-      </c>
-      <c r="B436" t="s">
-        <v>439</v>
-      </c>
-      <c r="C436" t="s">
-        <v>439</v>
-      </c>
-      <c r="D436" t="s">
-        <v>202</v>
-      </c>
-      <c r="E436" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="A437" t="s">
-        <v>440</v>
-      </c>
-      <c r="B437" t="s">
-        <v>440</v>
-      </c>
-      <c r="C437" t="s">
-        <v>440</v>
-      </c>
-      <c r="D437" t="s">
-        <v>202</v>
-      </c>
-      <c r="E437" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="A438" t="s">
-        <v>441</v>
-      </c>
-      <c r="B438" t="s">
-        <v>441</v>
-      </c>
-      <c r="C438" t="s">
-        <v>202</v>
-      </c>
-      <c r="D438" t="s">
-        <v>202</v>
-      </c>
-      <c r="E438" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="A439" t="s">
-        <v>442</v>
-      </c>
-      <c r="B439" t="s">
-        <v>442</v>
-      </c>
-      <c r="C439" t="s">
-        <v>442</v>
-      </c>
-      <c r="D439" t="s">
-        <v>202</v>
-      </c>
-      <c r="E439" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
-      <c r="A440" t="s">
-        <v>443</v>
-      </c>
-      <c r="B440" t="s">
-        <v>443</v>
-      </c>
-      <c r="C440" t="s">
-        <v>443</v>
-      </c>
-      <c r="D440" t="s">
-        <v>202</v>
-      </c>
-      <c r="E440" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
-      <c r="A441" t="s">
-        <v>444</v>
-      </c>
-      <c r="B441" t="s">
-        <v>442</v>
-      </c>
-      <c r="C441" t="s">
-        <v>442</v>
-      </c>
-      <c r="D441" t="s">
-        <v>202</v>
-      </c>
-      <c r="E441" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
-      <c r="A442" t="s">
-        <v>445</v>
-      </c>
-      <c r="B442" t="s">
-        <v>202</v>
-      </c>
-      <c r="C442" t="s">
-        <v>202</v>
-      </c>
-      <c r="D442" t="s">
-        <v>202</v>
-      </c>
-      <c r="E442" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
-      <c r="A443" t="s">
-        <v>446</v>
-      </c>
-      <c r="B443" t="s">
-        <v>446</v>
-      </c>
-      <c r="C443" t="s">
-        <v>202</v>
-      </c>
-      <c r="D443" t="s">
-        <v>202</v>
-      </c>
-      <c r="E443" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
-      <c r="A444" t="s">
-        <v>447</v>
-      </c>
-      <c r="B444" t="s">
-        <v>447</v>
-      </c>
-      <c r="C444" t="s">
-        <v>447</v>
-      </c>
-      <c r="D444" t="s">
-        <v>202</v>
-      </c>
-      <c r="E444" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
-      <c r="A445" t="s">
-        <v>448</v>
-      </c>
-      <c r="B445" t="s">
-        <v>448</v>
-      </c>
-      <c r="C445" t="s">
-        <v>448</v>
-      </c>
-      <c r="D445" t="s">
-        <v>448</v>
-      </c>
-      <c r="E445" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
-      <c r="A446" t="s">
-        <v>449</v>
-      </c>
-      <c r="B446" t="s">
-        <v>202</v>
-      </c>
-      <c r="C446" t="s">
-        <v>202</v>
-      </c>
-      <c r="D446" t="s">
-        <v>202</v>
-      </c>
-      <c r="E446" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
-      <c r="A447" t="s">
-        <v>450</v>
-      </c>
-      <c r="B447" t="s">
-        <v>202</v>
-      </c>
-      <c r="C447" t="s">
-        <v>202</v>
-      </c>
-      <c r="D447" t="s">
-        <v>202</v>
-      </c>
-      <c r="E447" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
-      <c r="A448" t="s">
-        <v>451</v>
-      </c>
-      <c r="B448" t="s">
-        <v>451</v>
-      </c>
-      <c r="C448" t="s">
-        <v>451</v>
-      </c>
-      <c r="D448" t="s">
-        <v>202</v>
-      </c>
-      <c r="E448" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
-      <c r="A449" t="s">
-        <v>452</v>
-      </c>
-      <c r="B449" t="s">
-        <v>194</v>
-      </c>
-      <c r="C449" t="s">
-        <v>194</v>
-      </c>
-      <c r="D449" t="s">
-        <v>194</v>
-      </c>
-      <c r="E449" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
-      <c r="A450" t="s">
-        <v>453</v>
-      </c>
-      <c r="B450" t="s">
-        <v>448</v>
-      </c>
-      <c r="C450" t="s">
-        <v>448</v>
-      </c>
-      <c r="D450" t="s">
-        <v>448</v>
-      </c>
-      <c r="E450" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
-      <c r="A451" t="s">
-        <v>454</v>
-      </c>
-      <c r="B451" t="s">
-        <v>202</v>
-      </c>
-      <c r="C451" t="s">
-        <v>202</v>
-      </c>
-      <c r="D451" t="s">
-        <v>202</v>
-      </c>
-      <c r="E451" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
-      <c r="A452" t="s">
-        <v>455</v>
-      </c>
-      <c r="B452" t="s">
-        <v>202</v>
-      </c>
-      <c r="C452" t="s">
-        <v>202</v>
-      </c>
-      <c r="D452" t="s">
-        <v>202</v>
-      </c>
-      <c r="E452" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
-      <c r="A453" t="s">
-        <v>456</v>
-      </c>
-      <c r="B453" t="s">
-        <v>202</v>
-      </c>
-      <c r="C453" t="s">
-        <v>202</v>
-      </c>
-      <c r="D453" t="s">
-        <v>202</v>
-      </c>
-      <c r="E453" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
-      <c r="A454" t="s">
-        <v>457</v>
-      </c>
-      <c r="B454" t="s">
-        <v>457</v>
-      </c>
-      <c r="C454" t="s">
-        <v>457</v>
-      </c>
-      <c r="D454" t="s">
-        <v>202</v>
-      </c>
-      <c r="E454" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
-      <c r="A455" t="s">
-        <v>458</v>
-      </c>
-      <c r="B455" t="s">
-        <v>457</v>
-      </c>
-      <c r="C455" t="s">
-        <v>457</v>
-      </c>
-      <c r="D455" t="s">
-        <v>202</v>
-      </c>
-      <c r="E455" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
-      <c r="A456" t="s">
-        <v>459</v>
-      </c>
-      <c r="B456" t="s">
-        <v>457</v>
-      </c>
-      <c r="C456" t="s">
-        <v>457</v>
-      </c>
-      <c r="D456" t="s">
-        <v>202</v>
-      </c>
-      <c r="E456" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
-      <c r="A457" t="s">
-        <v>460</v>
-      </c>
-      <c r="B457" t="s">
-        <v>457</v>
-      </c>
-      <c r="C457" t="s">
-        <v>457</v>
-      </c>
-      <c r="D457" t="s">
-        <v>202</v>
-      </c>
-      <c r="E457" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
-      <c r="A458" t="s">
-        <v>461</v>
-      </c>
-      <c r="B458" t="s">
-        <v>457</v>
-      </c>
-      <c r="C458" t="s">
-        <v>457</v>
-      </c>
-      <c r="D458" t="s">
-        <v>202</v>
-      </c>
-      <c r="E458" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
-      <c r="A459" t="s">
-        <v>462</v>
-      </c>
-      <c r="B459" t="s">
-        <v>457</v>
-      </c>
-      <c r="C459" t="s">
-        <v>457</v>
-      </c>
-      <c r="D459" t="s">
-        <v>202</v>
-      </c>
-      <c r="E459" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
-      <c r="A460" t="s">
-        <v>463</v>
-      </c>
-      <c r="B460" t="s">
-        <v>457</v>
-      </c>
-      <c r="C460" t="s">
-        <v>457</v>
-      </c>
-      <c r="D460" t="s">
-        <v>202</v>
-      </c>
-      <c r="E460" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
-      <c r="A461" t="s">
-        <v>464</v>
-      </c>
-      <c r="B461" t="s">
-        <v>457</v>
-      </c>
-      <c r="C461" t="s">
-        <v>457</v>
-      </c>
-      <c r="D461" t="s">
-        <v>202</v>
-      </c>
-      <c r="E461" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
-      <c r="A462" t="s">
-        <v>465</v>
-      </c>
-      <c r="B462" t="s">
-        <v>457</v>
-      </c>
-      <c r="C462" t="s">
-        <v>457</v>
-      </c>
-      <c r="D462" t="s">
-        <v>202</v>
-      </c>
-      <c r="E462" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
-      <c r="A463" t="s">
-        <v>466</v>
-      </c>
-      <c r="B463" t="s">
-        <v>457</v>
-      </c>
-      <c r="C463" t="s">
-        <v>457</v>
-      </c>
-      <c r="D463" t="s">
-        <v>202</v>
-      </c>
-      <c r="E463" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
-      <c r="A464" t="s">
-        <v>467</v>
-      </c>
-      <c r="B464" t="s">
-        <v>457</v>
-      </c>
-      <c r="C464" t="s">
-        <v>457</v>
-      </c>
-      <c r="D464" t="s">
-        <v>202</v>
-      </c>
-      <c r="E464" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
-      <c r="A465" t="s">
-        <v>468</v>
-      </c>
-      <c r="B465" t="s">
-        <v>468</v>
-      </c>
-      <c r="C465" t="s">
-        <v>468</v>
-      </c>
-      <c r="D465" t="s">
-        <v>202</v>
-      </c>
-      <c r="E465" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
-      <c r="A466" t="s">
-        <v>469</v>
-      </c>
-      <c r="B466" t="s">
-        <v>469</v>
-      </c>
-      <c r="C466" t="s">
-        <v>469</v>
-      </c>
-      <c r="D466" t="s">
-        <v>202</v>
-      </c>
-      <c r="E466" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
-      <c r="A467" t="s">
-        <v>470</v>
-      </c>
-      <c r="B467" t="s">
-        <v>470</v>
-      </c>
-      <c r="C467" t="s">
-        <v>470</v>
-      </c>
-      <c r="D467" t="s">
-        <v>202</v>
-      </c>
-      <c r="E467" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
-      <c r="A468" t="s">
-        <v>471</v>
-      </c>
-      <c r="B468" t="s">
-        <v>471</v>
-      </c>
-      <c r="C468" t="s">
-        <v>471</v>
-      </c>
-      <c r="D468" t="s">
-        <v>202</v>
-      </c>
-      <c r="E468" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
-      <c r="A469" t="s">
-        <v>472</v>
-      </c>
-      <c r="B469" t="s">
-        <v>472</v>
-      </c>
-      <c r="C469" t="s">
-        <v>472</v>
-      </c>
-      <c r="D469" t="s">
-        <v>202</v>
-      </c>
-      <c r="E469" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
-      <c r="A470" t="s">
-        <v>473</v>
-      </c>
-      <c r="B470" t="s">
-        <v>473</v>
-      </c>
-      <c r="C470" t="s">
-        <v>473</v>
-      </c>
-      <c r="D470" t="s">
-        <v>202</v>
-      </c>
-      <c r="E470" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
-      <c r="A471" t="s">
-        <v>474</v>
-      </c>
-      <c r="B471" t="s">
-        <v>474</v>
-      </c>
-      <c r="C471" t="s">
-        <v>474</v>
-      </c>
-      <c r="D471" t="s">
-        <v>202</v>
-      </c>
-      <c r="E471" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
-      <c r="A472" t="s">
-        <v>475</v>
-      </c>
-      <c r="B472" t="s">
-        <v>475</v>
-      </c>
-      <c r="C472" t="s">
-        <v>475</v>
-      </c>
-      <c r="D472" t="s">
-        <v>202</v>
-      </c>
-      <c r="E472" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
-      <c r="A473" t="s">
-        <v>476</v>
-      </c>
-      <c r="B473" t="s">
-        <v>476</v>
-      </c>
-      <c r="C473" t="s">
-        <v>476</v>
-      </c>
-      <c r="D473" t="s">
-        <v>202</v>
-      </c>
-      <c r="E473" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
-      <c r="A474" t="s">
-        <v>477</v>
-      </c>
-      <c r="B474" t="s">
-        <v>202</v>
-      </c>
-      <c r="C474" t="s">
-        <v>202</v>
-      </c>
-      <c r="D474" t="s">
-        <v>202</v>
-      </c>
-      <c r="E474" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
-      <c r="A475" t="s">
-        <v>478</v>
-      </c>
-      <c r="B475" t="s">
-        <v>202</v>
-      </c>
-      <c r="C475" t="s">
-        <v>202</v>
-      </c>
-      <c r="D475" t="s">
-        <v>202</v>
-      </c>
-      <c r="E475" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
-      <c r="A476" t="s">
-        <v>479</v>
-      </c>
-      <c r="B476" t="s">
-        <v>202</v>
-      </c>
-      <c r="C476" t="s">
-        <v>202</v>
-      </c>
-      <c r="D476" t="s">
-        <v>202</v>
-      </c>
-      <c r="E476" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
-      <c r="A477" t="s">
-        <v>480</v>
-      </c>
-      <c r="B477" t="s">
-        <v>202</v>
-      </c>
-      <c r="C477" t="s">
-        <v>202</v>
-      </c>
-      <c r="D477" t="s">
-        <v>202</v>
-      </c>
-      <c r="E477" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
-      <c r="A478" t="s">
-        <v>481</v>
-      </c>
-      <c r="B478" t="s">
-        <v>481</v>
-      </c>
-      <c r="C478" t="s">
-        <v>202</v>
-      </c>
-      <c r="D478" t="s">
-        <v>202</v>
-      </c>
-      <c r="E478" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
-      <c r="A479" t="s">
-        <v>482</v>
-      </c>
-      <c r="B479" t="s">
-        <v>202</v>
-      </c>
-      <c r="C479" t="s">
-        <v>202</v>
-      </c>
-      <c r="D479" t="s">
-        <v>202</v>
-      </c>
-      <c r="E479" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
-      <c r="A480" t="s">
-        <v>483</v>
-      </c>
-      <c r="B480" t="s">
-        <v>202</v>
-      </c>
-      <c r="C480" t="s">
-        <v>202</v>
-      </c>
-      <c r="D480" t="s">
-        <v>202</v>
-      </c>
-      <c r="E480" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
-      <c r="A481" t="s">
-        <v>484</v>
-      </c>
-      <c r="B481" t="s">
-        <v>484</v>
-      </c>
-      <c r="C481" t="s">
-        <v>484</v>
-      </c>
-      <c r="D481" t="s">
-        <v>202</v>
-      </c>
-      <c r="E481" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
-      <c r="A482" t="s">
-        <v>485</v>
-      </c>
-      <c r="B482" t="s">
-        <v>202</v>
-      </c>
-      <c r="C482" t="s">
-        <v>485</v>
-      </c>
-      <c r="D482" t="s">
-        <v>202</v>
-      </c>
-      <c r="E482" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
-      <c r="A483" t="s">
-        <v>486</v>
-      </c>
-      <c r="B483" t="s">
-        <v>486</v>
-      </c>
-      <c r="C483" t="s">
-        <v>486</v>
-      </c>
-      <c r="D483" t="s">
-        <v>202</v>
-      </c>
-      <c r="E483" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
-      <c r="A484" t="s">
-        <v>487</v>
-      </c>
-      <c r="B484" t="s">
-        <v>487</v>
-      </c>
-      <c r="C484" t="s">
-        <v>487</v>
-      </c>
-      <c r="D484" t="s">
-        <v>202</v>
-      </c>
-      <c r="E484" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
-      <c r="A485" t="s">
-        <v>488</v>
-      </c>
-      <c r="B485" t="s">
-        <v>488</v>
-      </c>
-      <c r="C485" t="s">
-        <v>488</v>
-      </c>
-      <c r="D485" t="s">
-        <v>202</v>
-      </c>
-      <c r="E485" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
